--- a/data/pca/factorExposure/factorExposure_2011-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-05-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
+  </si>
+  <si>
+    <t>factor12</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +744,66 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>0.01235773752184475</v>
+        <v>0.01375376734600641</v>
       </c>
       <c r="C2">
-        <v>-0.009224810180531215</v>
+        <v>-0.002329216016208164</v>
       </c>
       <c r="D2">
-        <v>-0.05690404846616997</v>
+        <v>0.00528460686967023</v>
       </c>
       <c r="E2">
-        <v>-0.01034623928446929</v>
+        <v>-0.04045130082448454</v>
       </c>
       <c r="F2">
-        <v>-0.02053449167567409</v>
+        <v>-0.003236280575944005</v>
       </c>
       <c r="G2">
-        <v>-0.02652617127698007</v>
+        <v>-0.007106317043295104</v>
       </c>
       <c r="H2">
-        <v>-0.02646404150198017</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-0.03244548050149886</v>
+      </c>
+      <c r="I2">
+        <v>-0.01817469605804328</v>
+      </c>
+      <c r="J2">
+        <v>-0.01267985498777845</v>
+      </c>
+      <c r="K2">
+        <v>0.04891053582720832</v>
+      </c>
+      <c r="L2">
+        <v>-0.01604543259345996</v>
+      </c>
+      <c r="M2">
+        <v>-0.005740948585775646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +826,66 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>0.08317569839739786</v>
+        <v>0.1094414484820507</v>
       </c>
       <c r="C4">
-        <v>0.05681304858801466</v>
+        <v>0.07598198211378505</v>
       </c>
       <c r="D4">
-        <v>-0.03212099037992906</v>
+        <v>0.01435858522864451</v>
       </c>
       <c r="E4">
-        <v>-0.03522303960254537</v>
+        <v>-0.03230378577250238</v>
       </c>
       <c r="F4">
-        <v>-0.02454040559936998</v>
+        <v>0.162744985537842</v>
       </c>
       <c r="G4">
-        <v>-0.01972956619394489</v>
+        <v>0.01905291217698696</v>
       </c>
       <c r="H4">
-        <v>0.03369406292732707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>-0.03160297985856949</v>
+      </c>
+      <c r="I4">
+        <v>0.04008692955455519</v>
+      </c>
+      <c r="J4">
+        <v>-0.009217747145228916</v>
+      </c>
+      <c r="K4">
+        <v>-0.09132920370003374</v>
+      </c>
+      <c r="L4">
+        <v>-0.02980522286938315</v>
+      </c>
+      <c r="M4">
+        <v>-0.06615446441606421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +908,476 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>0.1322971916500207</v>
+        <v>0.1336581001652217</v>
       </c>
       <c r="C6">
-        <v>0.04081526484550706</v>
+        <v>0.05423456875732797</v>
       </c>
       <c r="D6">
-        <v>-0.04624844436565177</v>
+        <v>0.004396842335128415</v>
       </c>
       <c r="E6">
-        <v>-0.0659918926590627</v>
+        <v>0.002851063358228537</v>
       </c>
       <c r="F6">
-        <v>0.1270055612362658</v>
+        <v>-0.01465203831080727</v>
       </c>
       <c r="G6">
-        <v>0.1245731846876844</v>
+        <v>0.1098928048801493</v>
       </c>
       <c r="H6">
-        <v>0.2392384608820885</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.000790693299507738</v>
+      </c>
+      <c r="I6">
+        <v>0.349248761744495</v>
+      </c>
+      <c r="J6">
+        <v>0.283287765456313</v>
+      </c>
+      <c r="K6">
+        <v>-0.05142332850007813</v>
+      </c>
+      <c r="L6">
+        <v>-0.1366909862831158</v>
+      </c>
+      <c r="M6">
+        <v>0.03839214945009516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>0.07462213914053892</v>
+        <v>0.07031881405717347</v>
       </c>
       <c r="C7">
-        <v>0.0474491533555812</v>
+        <v>0.06286849193190425</v>
       </c>
       <c r="D7">
-        <v>-0.04369240841933601</v>
+        <v>0.01139818047581691</v>
       </c>
       <c r="E7">
-        <v>-0.04642784861927117</v>
+        <v>-0.04532139453288196</v>
       </c>
       <c r="F7">
-        <v>0.04298295521083357</v>
+        <v>0.03778598736285933</v>
       </c>
       <c r="G7">
-        <v>-0.003437535002896087</v>
+        <v>0.002481642200250574</v>
       </c>
       <c r="H7">
-        <v>-0.05453852028158575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.01869785007490376</v>
+      </c>
+      <c r="I7">
+        <v>-0.02259413425745434</v>
+      </c>
+      <c r="J7">
+        <v>-0.08340150839176447</v>
+      </c>
+      <c r="K7">
+        <v>-0.08470521559293191</v>
+      </c>
+      <c r="L7">
+        <v>-0.009701399680438299</v>
+      </c>
+      <c r="M7">
+        <v>0.05711139076025373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>0.04062464713364122</v>
+        <v>0.04186907516130718</v>
       </c>
       <c r="C8">
-        <v>0.02538412726594748</v>
+        <v>0.01712566445758484</v>
       </c>
       <c r="D8">
-        <v>-0.05805470536455603</v>
+        <v>0.006581236450966115</v>
       </c>
       <c r="E8">
-        <v>-0.04981518232433917</v>
+        <v>-0.02197344856162239</v>
       </c>
       <c r="F8">
-        <v>-0.02208010652668351</v>
+        <v>0.1350778210657188</v>
       </c>
       <c r="G8">
-        <v>-0.05830680500444647</v>
+        <v>-0.01324913943768836</v>
       </c>
       <c r="H8">
-        <v>-0.01676689380202403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-0.03257410197454314</v>
+      </c>
+      <c r="I8">
+        <v>0.07120229764724233</v>
+      </c>
+      <c r="J8">
+        <v>-0.02923740344411896</v>
+      </c>
+      <c r="K8">
+        <v>-0.0659771613697213</v>
+      </c>
+      <c r="L8">
+        <v>-0.07389968571603862</v>
+      </c>
+      <c r="M8">
+        <v>-0.07278944630498714</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>0.07946065480860075</v>
+        <v>0.0834492432634969</v>
       </c>
       <c r="C9">
-        <v>0.05888366616862026</v>
+        <v>0.06486898519535854</v>
       </c>
       <c r="D9">
-        <v>-0.03636214182189162</v>
+        <v>-0.00580530995741294</v>
       </c>
       <c r="E9">
-        <v>-0.03002957308676949</v>
+        <v>-0.02683479336365566</v>
       </c>
       <c r="F9">
-        <v>-0.01949712918861867</v>
+        <v>0.1432459889203146</v>
       </c>
       <c r="G9">
-        <v>-0.01868065800176275</v>
+        <v>0.02461340931096306</v>
       </c>
       <c r="H9">
-        <v>-0.004297513534167275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-0.007245359364437479</v>
+      </c>
+      <c r="I9">
+        <v>0.01155203111063795</v>
+      </c>
+      <c r="J9">
+        <v>-0.0167571149893278</v>
+      </c>
+      <c r="K9">
+        <v>-0.05068032445934915</v>
+      </c>
+      <c r="L9">
+        <v>-0.03555963473639404</v>
+      </c>
+      <c r="M9">
+        <v>0.003592301739876722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>0.04791161781288861</v>
+        <v>0.1115054599464061</v>
       </c>
       <c r="C10">
-        <v>-0.1454121236351853</v>
+        <v>-0.1629903031187251</v>
       </c>
       <c r="D10">
-        <v>-0.07567813111543781</v>
+        <v>0.01170821502069435</v>
       </c>
       <c r="E10">
-        <v>-0.03713064685240999</v>
+        <v>-0.02958891913855351</v>
       </c>
       <c r="F10">
-        <v>0.03386155716011561</v>
+        <v>-0.01408220885762932</v>
       </c>
       <c r="G10">
-        <v>0.00573376784921375</v>
+        <v>0.03057186407881992</v>
       </c>
       <c r="H10">
-        <v>0.01453437459561118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02154185176475926</v>
+      </c>
+      <c r="I10">
+        <v>-0.01950595689109361</v>
+      </c>
+      <c r="J10">
+        <v>0.009454537045003146</v>
+      </c>
+      <c r="K10">
+        <v>0.008031699356093658</v>
+      </c>
+      <c r="L10">
+        <v>0.04233819353295586</v>
+      </c>
+      <c r="M10">
+        <v>0.09937295151033095</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.07641543138720427</v>
+        <v>0.06839065562382299</v>
       </c>
       <c r="C11">
-        <v>0.07616103742273897</v>
+        <v>0.07126679381963108</v>
       </c>
       <c r="D11">
-        <v>-0.01500713030243167</v>
+        <v>-0.03061833020311641</v>
       </c>
       <c r="E11">
-        <v>0.004023533589424494</v>
+        <v>-0.01242468921536068</v>
       </c>
       <c r="F11">
-        <v>-0.03010270904639607</v>
+        <v>0.118907226668627</v>
       </c>
       <c r="G11">
-        <v>-0.09651431552703274</v>
+        <v>0.01118202031954254</v>
       </c>
       <c r="H11">
-        <v>-0.0631331288775662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.04663560745991654</v>
+      </c>
+      <c r="I11">
+        <v>-0.06858449557035474</v>
+      </c>
+      <c r="J11">
+        <v>-0.04775511207825619</v>
+      </c>
+      <c r="K11">
+        <v>0.06469842851560036</v>
+      </c>
+      <c r="L11">
+        <v>-0.03238368393327605</v>
+      </c>
+      <c r="M11">
+        <v>0.1222064878158257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.07252265980549412</v>
+        <v>0.0683549250114832</v>
       </c>
       <c r="C12">
-        <v>0.04835114411685622</v>
+        <v>0.0628121891346555</v>
       </c>
       <c r="D12">
-        <v>-0.002382999935678769</v>
+        <v>-0.02852455236447975</v>
       </c>
       <c r="E12">
-        <v>-0.03958387708401409</v>
+        <v>-0.004892742832123009</v>
       </c>
       <c r="F12">
-        <v>-0.01374281779768561</v>
+        <v>0.1296129275505051</v>
       </c>
       <c r="G12">
-        <v>-0.07927587110879269</v>
+        <v>-0.001217081643861682</v>
       </c>
       <c r="H12">
-        <v>-0.07083567721367323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.0419803603421631</v>
+      </c>
+      <c r="I12">
+        <v>-0.03482795883513251</v>
+      </c>
+      <c r="J12">
+        <v>-0.05878508631293974</v>
+      </c>
+      <c r="K12">
+        <v>0.05639308844052519</v>
+      </c>
+      <c r="L12">
+        <v>-0.04962339697045974</v>
+      </c>
+      <c r="M12">
+        <v>0.1358853969187752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>0.05316785968211766</v>
+        <v>0.04531322183216754</v>
       </c>
       <c r="C13">
-        <v>0.003518691868377447</v>
+        <v>0.03233452864971974</v>
       </c>
       <c r="D13">
-        <v>-0.0008165052677558736</v>
+        <v>0.02131871745186224</v>
       </c>
       <c r="E13">
-        <v>-0.01538174250820181</v>
+        <v>-0.01241451912670203</v>
       </c>
       <c r="F13">
-        <v>-0.04686598299238731</v>
+        <v>0.04831716067393629</v>
       </c>
       <c r="G13">
-        <v>-0.004245552057883806</v>
+        <v>-0.004407355974663602</v>
       </c>
       <c r="H13">
-        <v>-0.08492873095726654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>-0.02057168122932864</v>
+      </c>
+      <c r="I13">
+        <v>0.008577392489672993</v>
+      </c>
+      <c r="J13">
+        <v>-0.02559818184075108</v>
+      </c>
+      <c r="K13">
+        <v>-0.04041029702016664</v>
+      </c>
+      <c r="L13">
+        <v>0.01717246918041028</v>
+      </c>
+      <c r="M13">
+        <v>-0.02117033429589039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0.05489899921544317</v>
+        <v>0.03955863552128572</v>
       </c>
       <c r="C14">
-        <v>0.02254829323125345</v>
+        <v>0.02784210194118166</v>
       </c>
       <c r="D14">
-        <v>-0.01809623048317695</v>
+        <v>-0.01382882332638126</v>
       </c>
       <c r="E14">
-        <v>-0.02663954786395758</v>
+        <v>-0.01051441848964921</v>
       </c>
       <c r="F14">
-        <v>0.009154959360905657</v>
+        <v>0.07068430727875727</v>
       </c>
       <c r="G14">
-        <v>0.01875379136333293</v>
+        <v>-0.008467025967099964</v>
       </c>
       <c r="H14">
-        <v>0.04540822019965503</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>-0.03268731796937056</v>
+      </c>
+      <c r="I14">
+        <v>0.0005829773321622102</v>
+      </c>
+      <c r="J14">
+        <v>0.01014215919741535</v>
+      </c>
+      <c r="K14">
+        <v>-0.1000345166942152</v>
+      </c>
+      <c r="L14">
+        <v>-0.02232999143546661</v>
+      </c>
+      <c r="M14">
+        <v>0.0001053439752778149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0.03633141962181541</v>
+        <v>0.02593096789081771</v>
       </c>
       <c r="C15">
-        <v>-0.008435286846531638</v>
+        <v>0.01118935519262381</v>
       </c>
       <c r="D15">
-        <v>0.001510724631731317</v>
+        <v>0.05597829352580247</v>
       </c>
       <c r="E15">
-        <v>-0.02233190361364086</v>
+        <v>-0.001661795706055461</v>
       </c>
       <c r="F15">
-        <v>-0.01589698288556186</v>
+        <v>0.009928899729712318</v>
       </c>
       <c r="G15">
-        <v>0.01373000064324883</v>
+        <v>0.0355834273517842</v>
       </c>
       <c r="H15">
-        <v>0.03351239957982317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>-0.01883964103588238</v>
+      </c>
+      <c r="I15">
+        <v>0.005070632479974553</v>
+      </c>
+      <c r="J15">
+        <v>0.01480043915976157</v>
+      </c>
+      <c r="K15">
+        <v>-0.0788336720716132</v>
+      </c>
+      <c r="L15">
+        <v>0.002696393286606229</v>
+      </c>
+      <c r="M15">
+        <v>0.004549644397653668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0.06533110820342278</v>
+        <v>0.07142847908650202</v>
       </c>
       <c r="C16">
-        <v>0.07447719124800273</v>
+        <v>0.0760535031549802</v>
       </c>
       <c r="D16">
-        <v>-0.01742121995650722</v>
+        <v>-0.02100192246562035</v>
       </c>
       <c r="E16">
-        <v>-0.02554442760368672</v>
+        <v>-0.01614942267102754</v>
       </c>
       <c r="F16">
-        <v>-0.03411147265760102</v>
+        <v>0.1195206896583254</v>
       </c>
       <c r="G16">
-        <v>-0.07174620962003578</v>
+        <v>-0.002346865334652459</v>
       </c>
       <c r="H16">
-        <v>-0.1005010969736249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.02893704459432011</v>
+      </c>
+      <c r="I16">
+        <v>-0.04890465673977218</v>
+      </c>
+      <c r="J16">
+        <v>-0.06716209574443231</v>
+      </c>
+      <c r="K16">
+        <v>0.0463081075990649</v>
+      </c>
+      <c r="L16">
+        <v>-0.05206419407888886</v>
+      </c>
+      <c r="M16">
+        <v>0.1304584462774249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1400,25 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1441,25 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1482,312 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0.04684281902637957</v>
+        <v>0.04694024593407173</v>
       </c>
       <c r="C20">
-        <v>0.04220004130220368</v>
+        <v>0.03176433993495777</v>
       </c>
       <c r="D20">
-        <v>-0.01163358419887069</v>
+        <v>0.02314003252208825</v>
       </c>
       <c r="E20">
-        <v>-0.01174761425152404</v>
+        <v>-0.01538606945823973</v>
       </c>
       <c r="F20">
-        <v>-0.01415560048385651</v>
+        <v>0.07178885978659762</v>
       </c>
       <c r="G20">
-        <v>-0.02073282187618445</v>
+        <v>-0.02446888789490581</v>
       </c>
       <c r="H20">
-        <v>-0.04890020917988176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.01825649734710418</v>
+      </c>
+      <c r="I20">
+        <v>0.01210075894413328</v>
+      </c>
+      <c r="J20">
+        <v>-0.01988291276170835</v>
+      </c>
+      <c r="K20">
+        <v>-0.0622094220175298</v>
+      </c>
+      <c r="L20">
+        <v>-0.04088337164329949</v>
+      </c>
+      <c r="M20">
+        <v>0.01741851521909368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>0.02731762116641261</v>
+        <v>0.02391772735519405</v>
       </c>
       <c r="C21">
-        <v>0.03404057146236188</v>
+        <v>0.02566609191609476</v>
       </c>
       <c r="D21">
-        <v>0.001876149731996724</v>
+        <v>0.008146613109229867</v>
       </c>
       <c r="E21">
-        <v>-0.06146817611490434</v>
+        <v>-0.01230054127989375</v>
       </c>
       <c r="F21">
-        <v>0.07711228330233175</v>
+        <v>0.06977986266635056</v>
       </c>
       <c r="G21">
-        <v>0.01551829193296512</v>
+        <v>0.07318969940533006</v>
       </c>
       <c r="H21">
-        <v>0.09593459024048374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.1007654137018419</v>
+      </c>
+      <c r="I21">
+        <v>0.009439422565680819</v>
+      </c>
+      <c r="J21">
+        <v>-0.03358063820423469</v>
+      </c>
+      <c r="K21">
+        <v>-0.1235088533968904</v>
+      </c>
+      <c r="L21">
+        <v>0.04707663710480552</v>
+      </c>
+      <c r="M21">
+        <v>0.04785002438669357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0.01982240779072003</v>
+        <v>0.04349932519764184</v>
       </c>
       <c r="C22">
-        <v>0.03625081242617856</v>
+        <v>0.02272288924533102</v>
       </c>
       <c r="D22">
-        <v>0.0540043754579695</v>
+        <v>0.6511532098103708</v>
       </c>
       <c r="E22">
-        <v>-0.5180425365626729</v>
+        <v>-0.07942579789065428</v>
       </c>
       <c r="F22">
-        <v>-0.2414363654645985</v>
+        <v>-0.05317036912729076</v>
       </c>
       <c r="G22">
-        <v>0.1202293366954215</v>
+        <v>-0.1357750673551768</v>
       </c>
       <c r="H22">
-        <v>0.1203179979033588</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.1098811152098384</v>
+      </c>
+      <c r="I22">
+        <v>-0.02029119652273476</v>
+      </c>
+      <c r="J22">
+        <v>0.01743120331474244</v>
+      </c>
+      <c r="K22">
+        <v>0.03519446324149076</v>
+      </c>
+      <c r="L22">
+        <v>0.006892344225538377</v>
+      </c>
+      <c r="M22">
+        <v>0.01307014927311938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>0.0192575916235667</v>
+        <v>0.04395054140185476</v>
       </c>
       <c r="C23">
-        <v>0.03578561376396786</v>
+        <v>0.02347784644805686</v>
       </c>
       <c r="D23">
-        <v>0.0534260915845313</v>
+        <v>0.6529653975088731</v>
       </c>
       <c r="E23">
-        <v>-0.5174705345024626</v>
+        <v>-0.07951761538804986</v>
       </c>
       <c r="F23">
-        <v>-0.2411565720869119</v>
+        <v>-0.05041350938869155</v>
       </c>
       <c r="G23">
-        <v>0.1218018798405768</v>
+        <v>-0.1367083012280355</v>
       </c>
       <c r="H23">
-        <v>0.1198912416550941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.1073611412014938</v>
+      </c>
+      <c r="I23">
+        <v>-0.01717088270429411</v>
+      </c>
+      <c r="J23">
+        <v>0.01955359961115295</v>
+      </c>
+      <c r="K23">
+        <v>0.03735533388443282</v>
+      </c>
+      <c r="L23">
+        <v>0.005045876943328832</v>
+      </c>
+      <c r="M23">
+        <v>0.01383295186064399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>0.07790522810936401</v>
+        <v>0.07528679787965591</v>
       </c>
       <c r="C24">
-        <v>0.06401574042595851</v>
+        <v>0.07280000037074745</v>
       </c>
       <c r="D24">
-        <v>-0.01860856808449578</v>
+        <v>-0.01496880024159648</v>
       </c>
       <c r="E24">
-        <v>-0.03273958458206581</v>
+        <v>-0.02057473127623475</v>
       </c>
       <c r="F24">
-        <v>-0.01906120968966079</v>
+        <v>0.1195414369138061</v>
       </c>
       <c r="G24">
-        <v>-0.07135492313285406</v>
+        <v>0.008559249878652496</v>
       </c>
       <c r="H24">
-        <v>-0.06444264067695003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.03888306006997308</v>
+      </c>
+      <c r="I24">
+        <v>-0.05352142742088354</v>
+      </c>
+      <c r="J24">
+        <v>-0.04313822214579023</v>
+      </c>
+      <c r="K24">
+        <v>0.06750301688111898</v>
+      </c>
+      <c r="L24">
+        <v>-0.04523801038989358</v>
+      </c>
+      <c r="M24">
+        <v>0.1048370580771817</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>0.07033243736422873</v>
+        <v>0.07309069606423264</v>
       </c>
       <c r="C25">
-        <v>0.03581499781539556</v>
+        <v>0.05094927583283108</v>
       </c>
       <c r="D25">
-        <v>-0.02070444503723411</v>
+        <v>-0.03464487568314146</v>
       </c>
       <c r="E25">
-        <v>-0.02823279555224144</v>
+        <v>-0.01143182225717164</v>
       </c>
       <c r="F25">
-        <v>-0.01738541896008542</v>
+        <v>0.1204120792412632</v>
       </c>
       <c r="G25">
-        <v>-0.0726485852374447</v>
+        <v>-0.0004727303979187755</v>
       </c>
       <c r="H25">
-        <v>-0.05150041999994782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.02637596712505265</v>
+      </c>
+      <c r="I25">
+        <v>-0.04907470366248946</v>
+      </c>
+      <c r="J25">
+        <v>-0.04597495300347884</v>
+      </c>
+      <c r="K25">
+        <v>0.06860642599932645</v>
+      </c>
+      <c r="L25">
+        <v>-0.06161423882790668</v>
+      </c>
+      <c r="M25">
+        <v>0.1091646191013769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>0.04983556342991181</v>
+        <v>0.04370627259973378</v>
       </c>
       <c r="C26">
-        <v>0.03917588592094018</v>
+        <v>0.01613861950256709</v>
       </c>
       <c r="D26">
-        <v>-0.03551128006774251</v>
+        <v>0.01028517610449867</v>
       </c>
       <c r="E26">
-        <v>-0.003355665523015346</v>
+        <v>-0.004659403433674574</v>
       </c>
       <c r="F26">
-        <v>-0.02243108348862308</v>
+        <v>0.0508653429809446</v>
       </c>
       <c r="G26">
-        <v>0.01504716028848274</v>
+        <v>-0.01688020647750702</v>
       </c>
       <c r="H26">
-        <v>-0.02201466030228767</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.009237940567845838</v>
+      </c>
+      <c r="I26">
+        <v>-0.009501581806780924</v>
+      </c>
+      <c r="J26">
+        <v>0.003574421409925795</v>
+      </c>
+      <c r="K26">
+        <v>-0.1259493878665624</v>
+      </c>
+      <c r="L26">
+        <v>0.02578731778344851</v>
+      </c>
+      <c r="M26">
+        <v>0.05724170903193462</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1810,394 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>0.09491613317788332</v>
+        <v>0.1448497468952885</v>
       </c>
       <c r="C28">
-        <v>-0.2911693009233445</v>
+        <v>-0.2862674130706593</v>
       </c>
       <c r="D28">
-        <v>-0.06769406312598776</v>
+        <v>-0.009067037740324066</v>
       </c>
       <c r="E28">
-        <v>-0.008955304499509091</v>
+        <v>-0.01699748002095278</v>
       </c>
       <c r="F28">
-        <v>0.03930813607886824</v>
+        <v>0.004835398325090803</v>
       </c>
       <c r="G28">
-        <v>-0.01048160655394752</v>
+        <v>0.003715407969390038</v>
       </c>
       <c r="H28">
-        <v>-0.006071383850280326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.01995331274305187</v>
+      </c>
+      <c r="I28">
+        <v>0.02100879060462336</v>
+      </c>
+      <c r="J28">
+        <v>-0.02441678788616054</v>
+      </c>
+      <c r="K28">
+        <v>-0.01216197911965166</v>
+      </c>
+      <c r="L28">
+        <v>0.01689425503773317</v>
+      </c>
+      <c r="M28">
+        <v>0.000751123020070888</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>0.05411086224693995</v>
+        <v>0.04026920844393794</v>
       </c>
       <c r="C29">
-        <v>0.01694713715840055</v>
+        <v>0.02688082208375023</v>
       </c>
       <c r="D29">
-        <v>-0.008602876512011682</v>
+        <v>-0.005403147827867274</v>
       </c>
       <c r="E29">
-        <v>-0.03126781621943098</v>
+        <v>-0.008734313294525009</v>
       </c>
       <c r="F29">
-        <v>-0.01957174799068203</v>
+        <v>0.0730534432778886</v>
       </c>
       <c r="G29">
-        <v>0.01182113195779288</v>
+        <v>-0.02092971388415079</v>
       </c>
       <c r="H29">
-        <v>0.03405171262329597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>-0.00935081721936242</v>
+      </c>
+      <c r="I29">
+        <v>0.009084948138873578</v>
+      </c>
+      <c r="J29">
+        <v>0.004908507908925363</v>
+      </c>
+      <c r="K29">
+        <v>-0.09287968847749181</v>
+      </c>
+      <c r="L29">
+        <v>-0.0168457899028243</v>
+      </c>
+      <c r="M29">
+        <v>0.01391785934753901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>0.1254025079900912</v>
+        <v>0.1059075264003708</v>
       </c>
       <c r="C30">
-        <v>0.04505458201848271</v>
+        <v>0.06268701149980423</v>
       </c>
       <c r="D30">
-        <v>-0.05195925175080713</v>
+        <v>-0.004988944587998195</v>
       </c>
       <c r="E30">
-        <v>-0.1077819878424783</v>
+        <v>-0.01097158649197634</v>
       </c>
       <c r="F30">
-        <v>0.03776476137700983</v>
+        <v>0.228738105722931</v>
       </c>
       <c r="G30">
-        <v>-0.1676171010989469</v>
+        <v>-0.1583150137178541</v>
       </c>
       <c r="H30">
-        <v>0.03725025576888744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.2532798812860218</v>
+      </c>
+      <c r="I30">
+        <v>0.1295213774897004</v>
+      </c>
+      <c r="J30">
+        <v>-0.03172260259477905</v>
+      </c>
+      <c r="K30">
+        <v>-0.1028742637197228</v>
+      </c>
+      <c r="L30">
+        <v>-0.07339497573283991</v>
+      </c>
+      <c r="M30">
+        <v>-0.4794216156488509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>0.04977433805037079</v>
+        <v>0.03792540738124221</v>
       </c>
       <c r="C31">
-        <v>0.02026429582161257</v>
+        <v>0.04934055661074271</v>
       </c>
       <c r="D31">
-        <v>0.01012594071208864</v>
+        <v>0.003675887023374192</v>
       </c>
       <c r="E31">
-        <v>-0.002648601900262781</v>
+        <v>0.004091239146658455</v>
       </c>
       <c r="F31">
-        <v>-0.02243951388051276</v>
+        <v>0.02764592276324213</v>
       </c>
       <c r="G31">
-        <v>0.03552979434378858</v>
+        <v>-0.0151654340243917</v>
       </c>
       <c r="H31">
-        <v>-0.02951204863319697</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>-0.04674841872331408</v>
+      </c>
+      <c r="I31">
+        <v>-0.003379507324241284</v>
+      </c>
+      <c r="J31">
+        <v>0.003028801329788602</v>
+      </c>
+      <c r="K31">
+        <v>-0.02312969711383891</v>
+      </c>
+      <c r="L31">
+        <v>-0.03257376903965712</v>
+      </c>
+      <c r="M31">
+        <v>0.001239661019889197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>0.01830492877142103</v>
+        <v>0.04377963133294206</v>
       </c>
       <c r="C32">
-        <v>-0.01685928965729635</v>
+        <v>-0.001289080796439548</v>
       </c>
       <c r="D32">
-        <v>-0.001597754474582978</v>
+        <v>-0.01373704943523262</v>
       </c>
       <c r="E32">
-        <v>-0.07830154036962256</v>
+        <v>0.0200799444947562</v>
       </c>
       <c r="F32">
-        <v>-0.09909177410434368</v>
+        <v>0.08503963682815364</v>
       </c>
       <c r="G32">
-        <v>-0.05445008444191587</v>
+        <v>0.01842889470297615</v>
       </c>
       <c r="H32">
-        <v>-0.0500126034887428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>-0.03569968055687112</v>
+      </c>
+      <c r="I32">
+        <v>-0.04583185537719575</v>
+      </c>
+      <c r="J32">
+        <v>-0.04255464968674637</v>
+      </c>
+      <c r="K32">
+        <v>-0.05139051783294033</v>
+      </c>
+      <c r="L32">
+        <v>-0.01462722213809831</v>
+      </c>
+      <c r="M32">
+        <v>-0.1630124213542029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>0.1138776586623455</v>
+        <v>0.09852038934965812</v>
       </c>
       <c r="C33">
-        <v>0.04033525191446075</v>
+        <v>0.06464657276499818</v>
       </c>
       <c r="D33">
-        <v>-0.007733599660310579</v>
+        <v>-0.01786822105508076</v>
       </c>
       <c r="E33">
-        <v>-0.02118646627430291</v>
+        <v>0.00721494454801351</v>
       </c>
       <c r="F33">
-        <v>-0.05780806832189017</v>
+        <v>0.08120334792742526</v>
       </c>
       <c r="G33">
-        <v>-0.0208161779109139</v>
+        <v>-0.01890039699907345</v>
       </c>
       <c r="H33">
-        <v>-0.00914686068698798</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>4.430369588202511e-05</v>
+      </c>
+      <c r="I33">
+        <v>-0.02311229001982426</v>
+      </c>
+      <c r="J33">
+        <v>0.03754766266170161</v>
+      </c>
+      <c r="K33">
+        <v>-0.03172091238099183</v>
+      </c>
+      <c r="L33">
+        <v>-0.01253775038352781</v>
+      </c>
+      <c r="M33">
+        <v>0.003769915127752455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>0.05745246485881916</v>
+        <v>0.06371213871156374</v>
       </c>
       <c r="C34">
-        <v>0.06696289124874273</v>
+        <v>0.06463113717953334</v>
       </c>
       <c r="D34">
-        <v>-0.006837770429108721</v>
+        <v>-0.02370928222190652</v>
       </c>
       <c r="E34">
-        <v>-0.01383702225553394</v>
+        <v>-0.005481690235410014</v>
       </c>
       <c r="F34">
-        <v>-0.01938949651994805</v>
+        <v>0.1108772976971529</v>
       </c>
       <c r="G34">
-        <v>-0.0504442812468382</v>
+        <v>0.004209062371162086</v>
       </c>
       <c r="H34">
-        <v>-0.04469876797309678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.01709344889972175</v>
+      </c>
+      <c r="I34">
+        <v>-0.04839335991334421</v>
+      </c>
+      <c r="J34">
+        <v>-0.06461296312922246</v>
+      </c>
+      <c r="K34">
+        <v>0.01960288345535848</v>
+      </c>
+      <c r="L34">
+        <v>-0.0463996609517884</v>
+      </c>
+      <c r="M34">
+        <v>0.1163604983005399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>0.04459806682695101</v>
+        <v>0.02553767265169767</v>
       </c>
       <c r="C35">
-        <v>0.03275156433425245</v>
+        <v>0.02508826883180299</v>
       </c>
       <c r="D35">
-        <v>0.007675527317021211</v>
+        <v>6.542446368277034e-05</v>
       </c>
       <c r="E35">
-        <v>-0.01575128120493249</v>
+        <v>0.01111574688735672</v>
       </c>
       <c r="F35">
-        <v>0.009119874007691603</v>
+        <v>0.04002885340551626</v>
       </c>
       <c r="G35">
-        <v>-0.006527648534194179</v>
+        <v>-0.01802432469669736</v>
       </c>
       <c r="H35">
-        <v>-0.04410302459310202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.01870747562820523</v>
+      </c>
+      <c r="I35">
+        <v>-0.01525644867903884</v>
+      </c>
+      <c r="J35">
+        <v>-0.05465178513519259</v>
+      </c>
+      <c r="K35">
+        <v>-0.05897412724625529</v>
+      </c>
+      <c r="L35">
+        <v>-0.03047259335695122</v>
+      </c>
+      <c r="M35">
+        <v>0.006759533169395563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>0.03243871061009445</v>
+        <v>0.0274329772199406</v>
       </c>
       <c r="C36">
-        <v>0.01677730823388815</v>
+        <v>0.01598675583354797</v>
       </c>
       <c r="D36">
-        <v>-0.02312003482029301</v>
+        <v>0.01163908312275233</v>
       </c>
       <c r="E36">
-        <v>-0.02927638572417163</v>
+        <v>-0.0127248806480055</v>
       </c>
       <c r="F36">
-        <v>-0.02406828920740646</v>
+        <v>0.06714382552329398</v>
       </c>
       <c r="G36">
-        <v>-0.00855513672144992</v>
+        <v>-0.007495756666941627</v>
       </c>
       <c r="H36">
-        <v>-0.02596368540552736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.007421231865964992</v>
+      </c>
+      <c r="I36">
+        <v>0.01154731530787207</v>
+      </c>
+      <c r="J36">
+        <v>0.02591885305259788</v>
+      </c>
+      <c r="K36">
+        <v>-0.03893168485679092</v>
+      </c>
+      <c r="L36">
+        <v>-0.01683545058842778</v>
+      </c>
+      <c r="M36">
+        <v>0.05699570164177587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +2220,189 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B38">
-        <v>0.05146048657056172</v>
+        <v>0.02868821775309623</v>
       </c>
       <c r="C38">
-        <v>0.04025989978510798</v>
+        <v>0.04641017172469396</v>
       </c>
       <c r="D38">
-        <v>-0.005748194448349485</v>
+        <v>0.02037349115824284</v>
       </c>
       <c r="E38">
-        <v>-0.02741621823486514</v>
+        <v>-0.0165672487478446</v>
       </c>
       <c r="F38">
-        <v>-0.04297578135091965</v>
+        <v>-0.04750990924534586</v>
       </c>
       <c r="G38">
-        <v>-0.02735783390010674</v>
+        <v>-0.05130291167194513</v>
       </c>
       <c r="H38">
-        <v>0.01635311129433856</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.002533676139319813</v>
+      </c>
+      <c r="I38">
+        <v>-0.01762515293792841</v>
+      </c>
+      <c r="J38">
+        <v>-0.007763528674609935</v>
+      </c>
+      <c r="K38">
+        <v>-0.07568056629106928</v>
+      </c>
+      <c r="L38">
+        <v>0.1053821290427676</v>
+      </c>
+      <c r="M38">
+        <v>-0.05536507081625095</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>0.09598579507350698</v>
+        <v>0.1042535952632138</v>
       </c>
       <c r="C39">
-        <v>0.07277629372278539</v>
+        <v>0.09255689409844019</v>
       </c>
       <c r="D39">
-        <v>0.003411489156905327</v>
+        <v>-0.08788861950119803</v>
       </c>
       <c r="E39">
-        <v>-0.02022750104384436</v>
+        <v>0.02412500563829015</v>
       </c>
       <c r="F39">
-        <v>0.001911522419117052</v>
+        <v>0.1622336932586013</v>
       </c>
       <c r="G39">
-        <v>-0.122019257329294</v>
+        <v>-0.09975804849815294</v>
       </c>
       <c r="H39">
-        <v>-0.1365236982083555</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.08759411244674464</v>
+      </c>
+      <c r="I39">
+        <v>-0.03981561572964579</v>
+      </c>
+      <c r="J39">
+        <v>-0.1463261430973383</v>
+      </c>
+      <c r="K39">
+        <v>0.1321826684739399</v>
+      </c>
+      <c r="L39">
+        <v>-0.09434407092615282</v>
+      </c>
+      <c r="M39">
+        <v>-0.002850621263602743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40">
-        <v>0.04777672570947235</v>
+        <v>0.03286999672246504</v>
       </c>
       <c r="C40">
-        <v>0.02937566642807187</v>
+        <v>0.0588551185698013</v>
       </c>
       <c r="D40">
-        <v>0.04302392807557201</v>
+        <v>0.04286668722823535</v>
       </c>
       <c r="E40">
-        <v>-0.1178002004725523</v>
+        <v>-0.0113928746308621</v>
       </c>
       <c r="F40">
-        <v>-0.06136336732346383</v>
+        <v>0.1102826733970477</v>
       </c>
       <c r="G40">
-        <v>-0.1399175870013086</v>
+        <v>0.03713556041745057</v>
       </c>
       <c r="H40">
-        <v>-0.1552170380435318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.07988939295417738</v>
+      </c>
+      <c r="I40">
+        <v>-0.02732243802173986</v>
+      </c>
+      <c r="J40">
+        <v>0.004365909226260805</v>
+      </c>
+      <c r="K40">
+        <v>-0.07075589876871063</v>
+      </c>
+      <c r="L40">
+        <v>0.1110196535319001</v>
+      </c>
+      <c r="M40">
+        <v>-0.09336897006342987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B41">
-        <v>0.04540941107976389</v>
+        <v>0.04014478481884762</v>
       </c>
       <c r="C41">
-        <v>0.04133464947581202</v>
+        <v>0.038397891097961</v>
       </c>
       <c r="D41">
-        <v>-0.0006420473243890861</v>
+        <v>-0.01516988654942369</v>
       </c>
       <c r="E41">
-        <v>0.008781229664947156</v>
+        <v>0.004762487304806246</v>
       </c>
       <c r="F41">
-        <v>-0.0215843690067096</v>
+        <v>0.02613439333368598</v>
       </c>
       <c r="G41">
-        <v>-0.02286319022856808</v>
+        <v>-0.0251181355974667</v>
       </c>
       <c r="H41">
-        <v>-0.04446724562922341</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>-0.003282132322780564</v>
+      </c>
+      <c r="I41">
+        <v>-0.01541573677201074</v>
+      </c>
+      <c r="J41">
+        <v>-0.03504530625975306</v>
+      </c>
+      <c r="K41">
+        <v>-0.04326106793214204</v>
+      </c>
+      <c r="L41">
+        <v>0.00810645036068669</v>
+      </c>
+      <c r="M41">
+        <v>0.01202989364346241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2425,107 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B43">
-        <v>0.0611318773824313</v>
+        <v>0.05064117954926951</v>
       </c>
       <c r="C43">
-        <v>0.03195680095637715</v>
+        <v>0.04373314861478209</v>
       </c>
       <c r="D43">
-        <v>-0.02265618654775505</v>
+        <v>0.01147251086698228</v>
       </c>
       <c r="E43">
-        <v>-0.02587201263175969</v>
+        <v>-0.01322350939818425</v>
       </c>
       <c r="F43">
-        <v>-0.01731037814950901</v>
+        <v>0.01712111165132176</v>
       </c>
       <c r="G43">
-        <v>-0.005364039777907404</v>
+        <v>-0.05289749314080561</v>
       </c>
       <c r="H43">
-        <v>-0.005755304282059753</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>-0.008978719286165745</v>
+      </c>
+      <c r="I43">
+        <v>0.01307427447700625</v>
+      </c>
+      <c r="J43">
+        <v>-0.04615144591645196</v>
+      </c>
+      <c r="K43">
+        <v>-0.02174273668974875</v>
+      </c>
+      <c r="L43">
+        <v>-0.005133072044563983</v>
+      </c>
+      <c r="M43">
+        <v>0.03404638196489171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>0.05153384641083651</v>
+        <v>0.08571824364463905</v>
       </c>
       <c r="C44">
-        <v>0.01870179012297297</v>
+        <v>0.06236066943301929</v>
       </c>
       <c r="D44">
-        <v>-0.08125791287310676</v>
+        <v>0.07591898098539029</v>
       </c>
       <c r="E44">
-        <v>-0.07017945771745632</v>
+        <v>-0.07353711982501926</v>
       </c>
       <c r="F44">
-        <v>-0.0130481663584081</v>
+        <v>0.1755029701981652</v>
       </c>
       <c r="G44">
-        <v>-0.1193111852946802</v>
+        <v>-0.002258911124116338</v>
       </c>
       <c r="H44">
-        <v>-0.05348833561168457</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.02462465716660613</v>
+      </c>
+      <c r="I44">
+        <v>-0.0351636693469658</v>
+      </c>
+      <c r="J44">
+        <v>-0.02847709412802249</v>
+      </c>
+      <c r="K44">
+        <v>-0.0232318662444468</v>
+      </c>
+      <c r="L44">
+        <v>0.04277951598181517</v>
+      </c>
+      <c r="M44">
+        <v>-0.08957647792046873</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2548,476 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46">
-        <v>0.03280897720112243</v>
+        <v>0.0346413306762958</v>
       </c>
       <c r="C46">
-        <v>0.04702534569209651</v>
+        <v>0.03949882686742148</v>
       </c>
       <c r="D46">
-        <v>-0.01535731164064075</v>
+        <v>0.03813280167326097</v>
       </c>
       <c r="E46">
-        <v>-0.04833829922564561</v>
+        <v>-0.03837392953204335</v>
       </c>
       <c r="F46">
-        <v>-0.0206517385145837</v>
+        <v>0.05702522720699914</v>
       </c>
       <c r="G46">
-        <v>-0.00261646172293704</v>
+        <v>0.001974681851372833</v>
       </c>
       <c r="H46">
-        <v>0.004547965024186251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.002489614064943431</v>
+      </c>
+      <c r="I46">
+        <v>-0.03513186756326959</v>
+      </c>
+      <c r="J46">
+        <v>0.007600826438878694</v>
+      </c>
+      <c r="K46">
+        <v>-0.1177487674218046</v>
+      </c>
+      <c r="L46">
+        <v>-0.02979876775473564</v>
+      </c>
+      <c r="M46">
+        <v>0.02929471532817929</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B47">
-        <v>0.03147480038222318</v>
+        <v>0.04138248650786234</v>
       </c>
       <c r="C47">
-        <v>0.01176200307743555</v>
+        <v>0.02858375110467576</v>
       </c>
       <c r="D47">
-        <v>-0.00212559236013531</v>
+        <v>0.01774481577657602</v>
       </c>
       <c r="E47">
-        <v>-0.0638490615343253</v>
+        <v>-0.01018772710905747</v>
       </c>
       <c r="F47">
-        <v>-0.02421749551950678</v>
+        <v>0.03669704377935664</v>
       </c>
       <c r="G47">
-        <v>0.01186952357230523</v>
+        <v>-0.007572420546481685</v>
       </c>
       <c r="H47">
-        <v>0.004464611561065844</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>-0.009345852662533325</v>
+      </c>
+      <c r="I47">
+        <v>0.02350304186141363</v>
+      </c>
+      <c r="J47">
+        <v>0.003278311895225119</v>
+      </c>
+      <c r="K47">
+        <v>-0.05098398650559993</v>
+      </c>
+      <c r="L47">
+        <v>0.007209204322405165</v>
+      </c>
+      <c r="M47">
+        <v>0.05295479646680692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B48">
-        <v>0.03876764320162711</v>
+        <v>0.04281148047827048</v>
       </c>
       <c r="C48">
-        <v>0.02385356716816794</v>
+        <v>0.02063504424489081</v>
       </c>
       <c r="D48">
-        <v>0.003290202469304555</v>
+        <v>0.008837846505861476</v>
       </c>
       <c r="E48">
-        <v>-0.05149179593326551</v>
+        <v>-0.005062556960434571</v>
       </c>
       <c r="F48">
-        <v>-0.03448136545646437</v>
+        <v>0.0729560313843077</v>
       </c>
       <c r="G48">
-        <v>0.01112485292996278</v>
+        <v>0.02451613937285922</v>
       </c>
       <c r="H48">
-        <v>-0.04122587320923195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.02315766204884115</v>
+      </c>
+      <c r="I48">
+        <v>0.008503284039487542</v>
+      </c>
+      <c r="J48">
+        <v>-0.0008469152817073814</v>
+      </c>
+      <c r="K48">
+        <v>-0.04026785464044427</v>
+      </c>
+      <c r="L48">
+        <v>-0.04336393215428785</v>
+      </c>
+      <c r="M48">
+        <v>0.0499381299528692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B49">
-        <v>0.2249028937257965</v>
+        <v>0.2252094805964768</v>
       </c>
       <c r="C49">
-        <v>0.1125018205172017</v>
+        <v>0.07296287866084714</v>
       </c>
       <c r="D49">
-        <v>-0.04146511346401997</v>
+        <v>-0.05176284286532203</v>
       </c>
       <c r="E49">
-        <v>0.0254440834801474</v>
+        <v>-0.06139388860530078</v>
       </c>
       <c r="F49">
-        <v>0.1836612769704457</v>
+        <v>-0.2316418323333349</v>
       </c>
       <c r="G49">
-        <v>-0.02267206456922373</v>
+        <v>0.1155200752891983</v>
       </c>
       <c r="H49">
-        <v>0.05757926069909944</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.181205810466204</v>
+      </c>
+      <c r="I49">
+        <v>-0.1149203322288521</v>
+      </c>
+      <c r="J49">
+        <v>-0.01435985989817238</v>
+      </c>
+      <c r="K49">
+        <v>0.1494253417984965</v>
+      </c>
+      <c r="L49">
+        <v>-0.007814355033863305</v>
+      </c>
+      <c r="M49">
+        <v>0.07620279877933413</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B50">
-        <v>0.05782528949330135</v>
+        <v>0.04635456332560435</v>
       </c>
       <c r="C50">
-        <v>0.02525816231004</v>
+        <v>0.03810599213758822</v>
       </c>
       <c r="D50">
-        <v>0.005870534837684446</v>
+        <v>0.0002506818573130791</v>
       </c>
       <c r="E50">
-        <v>-0.02412779084114844</v>
+        <v>0.006265581460043144</v>
       </c>
       <c r="F50">
-        <v>-0.05970976723859787</v>
+        <v>0.04903413105469657</v>
       </c>
       <c r="G50">
-        <v>0.04121618447556734</v>
+        <v>-0.03380228255959274</v>
       </c>
       <c r="H50">
-        <v>0.012119533112736</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>-0.03050035743337018</v>
+      </c>
+      <c r="I50">
+        <v>0.005409164294237154</v>
+      </c>
+      <c r="J50">
+        <v>0.02433821915295372</v>
+      </c>
+      <c r="K50">
+        <v>-0.04702495169429986</v>
+      </c>
+      <c r="L50">
+        <v>-0.02937279074089167</v>
+      </c>
+      <c r="M50">
+        <v>-0.003377035183510113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>0.027236562361647</v>
+        <v>0.02643324026520708</v>
       </c>
       <c r="C51">
-        <v>0.01354425980272888</v>
+        <v>0.005199667781318059</v>
       </c>
       <c r="D51">
-        <v>-0.004668187890191118</v>
+        <v>-0.001336177740998328</v>
       </c>
       <c r="E51">
-        <v>0.004009000601819981</v>
+        <v>-0.01804943504237191</v>
       </c>
       <c r="F51">
-        <v>-0.01134251836477698</v>
+        <v>-0.02394534189954849</v>
       </c>
       <c r="G51">
-        <v>-0.01260679267275884</v>
+        <v>0.0001086184043853715</v>
       </c>
       <c r="H51">
-        <v>-0.01337946215257906</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.004585081377882809</v>
+      </c>
+      <c r="I51">
+        <v>-0.008444478990813738</v>
+      </c>
+      <c r="J51">
+        <v>-0.04171069507232574</v>
+      </c>
+      <c r="K51">
+        <v>0.0606457016702689</v>
+      </c>
+      <c r="L51">
+        <v>-0.0201912335423749</v>
+      </c>
+      <c r="M51">
+        <v>-0.000622206874982537</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.03910270819514639</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.01617087265755331</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>-0.01579635372796516</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.004816426655854714</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.01798261924882278</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.05363658083530793</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>-0.008854937290196294</v>
+      </c>
+      <c r="I52">
+        <v>-0.006624607817928545</v>
+      </c>
+      <c r="J52">
+        <v>0.03424963593556273</v>
+      </c>
+      <c r="K52">
+        <v>0.01951678711961666</v>
+      </c>
+      <c r="L52">
+        <v>-0.0210883458941572</v>
+      </c>
+      <c r="M52">
+        <v>-0.05131360438393873</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B53">
-        <v>0.1692019711663739</v>
+        <v>0.1614744028366393</v>
       </c>
       <c r="C53">
-        <v>-0.001470550348654302</v>
+        <v>0.0483262852648375</v>
       </c>
       <c r="D53">
-        <v>-0.02012165764565998</v>
+        <v>-0.01454079859255011</v>
       </c>
       <c r="E53">
-        <v>0.1156197638148582</v>
+        <v>0.000676721201571394</v>
       </c>
       <c r="F53">
-        <v>-0.2151934346418341</v>
+        <v>-0.06930443919539774</v>
       </c>
       <c r="G53">
-        <v>0.02679755013008958</v>
+        <v>-0.1785360703642136</v>
       </c>
       <c r="H53">
-        <v>-0.02402040516705964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.182741367602084</v>
+      </c>
+      <c r="I53">
+        <v>-0.07274991359908695</v>
+      </c>
+      <c r="J53">
+        <v>0.1194055073646146</v>
+      </c>
+      <c r="K53">
+        <v>-0.007328021627093765</v>
+      </c>
+      <c r="L53">
+        <v>0.008462186219773122</v>
+      </c>
+      <c r="M53">
+        <v>-0.08496657411732941</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B54">
-        <v>0.05258282723854509</v>
+        <v>0.05465131010858439</v>
       </c>
       <c r="C54">
-        <v>0.03049006152667753</v>
+        <v>0.04086025002640802</v>
       </c>
       <c r="D54">
-        <v>-0.0260802738527869</v>
+        <v>0.01589764544830678</v>
       </c>
       <c r="E54">
-        <v>-0.05522477875492616</v>
+        <v>-0.0157707985726234</v>
       </c>
       <c r="F54">
-        <v>-0.03410044903785042</v>
+        <v>0.1367575312936503</v>
       </c>
       <c r="G54">
-        <v>-0.01271052952963802</v>
+        <v>0.0304080621571092</v>
       </c>
       <c r="H54">
-        <v>0.007258157161720582</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>-0.03526775037023339</v>
+      </c>
+      <c r="I54">
+        <v>0.04450409763369235</v>
+      </c>
+      <c r="J54">
+        <v>-0.01488085874100794</v>
+      </c>
+      <c r="K54">
+        <v>-0.1364906166933778</v>
+      </c>
+      <c r="L54">
+        <v>-0.01652514791054296</v>
+      </c>
+      <c r="M54">
+        <v>0.03852819348314676</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55">
-        <v>0.09305564038090718</v>
+        <v>0.08547183792984568</v>
       </c>
       <c r="C55">
-        <v>0.002137819608371294</v>
+        <v>0.03856055250164275</v>
       </c>
       <c r="D55">
-        <v>-0.01725403445921042</v>
+        <v>-0.02928925899618056</v>
       </c>
       <c r="E55">
-        <v>0.04035200030461622</v>
+        <v>-0.009175570412656956</v>
       </c>
       <c r="F55">
-        <v>-0.1832297878233144</v>
+        <v>-0.001827278226715004</v>
       </c>
       <c r="G55">
-        <v>0.03261205571663923</v>
+        <v>-0.0949299644214677</v>
       </c>
       <c r="H55">
-        <v>-0.01313526551710531</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.1382728778822161</v>
+      </c>
+      <c r="I55">
+        <v>-0.04672659370172953</v>
+      </c>
+      <c r="J55">
+        <v>0.0617365461421337</v>
+      </c>
+      <c r="K55">
+        <v>-0.008420222500058958</v>
+      </c>
+      <c r="L55">
+        <v>0.003690872574816303</v>
+      </c>
+      <c r="M55">
+        <v>0.02210251023552863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B56">
-        <v>0.1693150074834161</v>
+        <v>0.1516629236132853</v>
       </c>
       <c r="C56">
-        <v>0.007744873100366733</v>
+        <v>0.06553335178169907</v>
       </c>
       <c r="D56">
-        <v>-0.02137491453717269</v>
+        <v>-0.0351568022743286</v>
       </c>
       <c r="E56">
-        <v>0.1045007556591944</v>
+        <v>-0.02767784662321396</v>
       </c>
       <c r="F56">
-        <v>-0.2198369047009312</v>
+        <v>-0.04379042006176193</v>
       </c>
       <c r="G56">
-        <v>0.06408126051651758</v>
+        <v>-0.1664585370459141</v>
       </c>
       <c r="H56">
-        <v>-0.02385358135261867</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.1708804227049005</v>
+      </c>
+      <c r="I56">
+        <v>-0.07517433483603013</v>
+      </c>
+      <c r="J56">
+        <v>0.1034982445493435</v>
+      </c>
+      <c r="K56">
+        <v>0.005060889067953166</v>
+      </c>
+      <c r="L56">
+        <v>0.05027392282042519</v>
+      </c>
+      <c r="M56">
+        <v>-0.02893534694457115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +3040,1829 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B58">
-        <v>0.02937642426196747</v>
+        <v>0.0391662596691147</v>
       </c>
       <c r="C58">
-        <v>0.0506670911374766</v>
+        <v>0.03720234806292675</v>
       </c>
       <c r="D58">
-        <v>0.02338694129095729</v>
+        <v>0.08372758290420261</v>
       </c>
       <c r="E58">
-        <v>-0.4127059201999452</v>
+        <v>-0.01705790773109653</v>
       </c>
       <c r="F58">
-        <v>0.3065151495038153</v>
+        <v>0.0407393033112281</v>
       </c>
       <c r="G58">
-        <v>0.1924782722834208</v>
+        <v>-0.003594463418901829</v>
       </c>
       <c r="H58">
-        <v>-0.5524311983888904</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.136791344789829</v>
+      </c>
+      <c r="I58">
+        <v>0.05917995481604537</v>
+      </c>
+      <c r="J58">
+        <v>-0.1975310920807555</v>
+      </c>
+      <c r="K58">
+        <v>0.07089828245615323</v>
+      </c>
+      <c r="L58">
+        <v>-0.4405378707102448</v>
+      </c>
+      <c r="M58">
+        <v>-0.0304552464830363</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>0.1991397801994527</v>
+        <v>0.2262594215382435</v>
       </c>
       <c r="C59">
-        <v>-0.4060542671607594</v>
+        <v>-0.2950722978524686</v>
       </c>
       <c r="D59">
-        <v>-0.08321435131918065</v>
+        <v>-0.04092917507136407</v>
       </c>
       <c r="E59">
-        <v>0.004583699066787349</v>
+        <v>0.003427789185146273</v>
       </c>
       <c r="F59">
-        <v>-0.05331275591004656</v>
+        <v>0.01855435319784027</v>
       </c>
       <c r="G59">
-        <v>-0.07201381017649613</v>
+        <v>-0.02068609795457624</v>
       </c>
       <c r="H59">
-        <v>-0.02353454140359919</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.113639075211029</v>
+      </c>
+      <c r="I59">
+        <v>-0.02476496493806305</v>
+      </c>
+      <c r="J59">
+        <v>-0.02989765199455412</v>
+      </c>
+      <c r="K59">
+        <v>0.08997092441018538</v>
+      </c>
+      <c r="L59">
+        <v>0.07947065044644164</v>
+      </c>
+      <c r="M59">
+        <v>-0.05168878015752427</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B60">
-        <v>0.2661760354476709</v>
+        <v>0.240161456619711</v>
       </c>
       <c r="C60">
-        <v>0.06826697759201671</v>
+        <v>0.1202607282015037</v>
       </c>
       <c r="D60">
-        <v>-0.08212103237910198</v>
+        <v>-0.06661407439102898</v>
       </c>
       <c r="E60">
-        <v>0.02389772161422642</v>
+        <v>-0.05324529013372383</v>
       </c>
       <c r="F60">
-        <v>0.07861094062403216</v>
+        <v>-0.1364030893317617</v>
       </c>
       <c r="G60">
-        <v>0.04511566909624595</v>
+        <v>0.03860422083000749</v>
       </c>
       <c r="H60">
-        <v>0.1477790412540055</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.08668120301850304</v>
+      </c>
+      <c r="I60">
+        <v>0.06496795496027762</v>
+      </c>
+      <c r="J60">
+        <v>0.1706221718852527</v>
+      </c>
+      <c r="K60">
+        <v>0.1702446450880753</v>
+      </c>
+      <c r="L60">
+        <v>-0.01296241796551827</v>
+      </c>
+      <c r="M60">
+        <v>-0.0628882861242875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>0.08599476416674547</v>
+        <v>0.1028552749667649</v>
       </c>
       <c r="C61">
-        <v>0.04508456681145399</v>
+        <v>0.06287550552322103</v>
       </c>
       <c r="D61">
-        <v>-0.007116719111898121</v>
+        <v>-0.05039587924956463</v>
       </c>
       <c r="E61">
-        <v>0.008420280400249639</v>
+        <v>-0.01124522493445981</v>
       </c>
       <c r="F61">
-        <v>-0.009257537949463199</v>
+        <v>0.1410637336853612</v>
       </c>
       <c r="G61">
-        <v>-0.04434206602419331</v>
+        <v>-0.09262456282798026</v>
       </c>
       <c r="H61">
-        <v>-0.07887976856117447</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.02532096502013973</v>
+      </c>
+      <c r="I61">
+        <v>-0.04775722976084455</v>
+      </c>
+      <c r="J61">
+        <v>-0.08913945347618059</v>
+      </c>
+      <c r="K61">
+        <v>0.02040992001587186</v>
+      </c>
+      <c r="L61">
+        <v>-0.04410672546790645</v>
+      </c>
+      <c r="M61">
+        <v>0.02402486426355622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B62">
-        <v>0.1572359809856458</v>
+        <v>0.1424723041591557</v>
       </c>
       <c r="C62">
-        <v>0.02890586165468681</v>
+        <v>0.06661626817491351</v>
       </c>
       <c r="D62">
-        <v>0.01893849553506795</v>
+        <v>-0.0345653587170705</v>
       </c>
       <c r="E62">
-        <v>0.1729265234884388</v>
+        <v>0.0125796538294551</v>
       </c>
       <c r="F62">
-        <v>-0.20268910913264</v>
+        <v>-0.05385409052795305</v>
       </c>
       <c r="G62">
-        <v>0.002081689406408365</v>
+        <v>-0.1199436859328792</v>
       </c>
       <c r="H62">
-        <v>-0.01239198179130059</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.162131760037048</v>
+      </c>
+      <c r="I62">
+        <v>-0.09471723365300534</v>
+      </c>
+      <c r="J62">
+        <v>0.1449753263879694</v>
+      </c>
+      <c r="K62">
+        <v>-0.05341107149810084</v>
+      </c>
+      <c r="L62">
+        <v>0.05482594488841385</v>
+      </c>
+      <c r="M62">
+        <v>0.05174441361916198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B63">
-        <v>0.03944411795405785</v>
+        <v>0.04609162958139403</v>
       </c>
       <c r="C63">
-        <v>0.030906209089533</v>
+        <v>0.02984291500422901</v>
       </c>
       <c r="D63">
-        <v>0.003712127355608883</v>
+        <v>-0.003549518414210252</v>
       </c>
       <c r="E63">
-        <v>-0.001460019649523026</v>
+        <v>0.01486960765227443</v>
       </c>
       <c r="F63">
-        <v>-0.01756766123169589</v>
+        <v>0.07264770528731945</v>
       </c>
       <c r="G63">
-        <v>0.00302333510659984</v>
+        <v>0.001421866474326825</v>
       </c>
       <c r="H63">
-        <v>0.0181683543829268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.009519318935630381</v>
+      </c>
+      <c r="I63">
+        <v>-0.004052331823461168</v>
+      </c>
+      <c r="J63">
+        <v>-0.006913865668879685</v>
+      </c>
+      <c r="K63">
+        <v>-0.02929189888776389</v>
+      </c>
+      <c r="L63">
+        <v>-0.0465104869386947</v>
+      </c>
+      <c r="M63">
+        <v>0.03541649882697277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B64">
-        <v>0.110691011996173</v>
+        <v>0.09998989204220779</v>
       </c>
       <c r="C64">
-        <v>0.03206964340919963</v>
+        <v>0.04852533424227978</v>
       </c>
       <c r="D64">
-        <v>-0.04340247259763986</v>
+        <v>0.004977249430416604</v>
       </c>
       <c r="E64">
-        <v>-0.03915490149315416</v>
+        <v>-0.02732686674200187</v>
       </c>
       <c r="F64">
-        <v>0.01605523341782475</v>
+        <v>0.08268632102221353</v>
       </c>
       <c r="G64">
-        <v>-0.0669800139343614</v>
+        <v>-0.0241162107332962</v>
       </c>
       <c r="H64">
-        <v>0.02535952931274538</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.09367566926869629</v>
+      </c>
+      <c r="I64">
+        <v>0.02441867001723055</v>
+      </c>
+      <c r="J64">
+        <v>-0.01981268909590101</v>
+      </c>
+      <c r="K64">
+        <v>0.008216136680087239</v>
+      </c>
+      <c r="L64">
+        <v>0.00930387670493203</v>
+      </c>
+      <c r="M64">
+        <v>-0.03621181341285348</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B65">
-        <v>0.1278657982835204</v>
+        <v>0.1253634600345928</v>
       </c>
       <c r="C65">
-        <v>0.04699264696126251</v>
+        <v>0.05376315633069</v>
       </c>
       <c r="D65">
-        <v>-0.03189715330580123</v>
+        <v>-0.009729128626487482</v>
       </c>
       <c r="E65">
-        <v>-0.09517553672126709</v>
+        <v>0.0287571722255384</v>
       </c>
       <c r="F65">
-        <v>0.2013650474129534</v>
+        <v>-0.03038895331799845</v>
       </c>
       <c r="G65">
-        <v>0.2848164376506984</v>
+        <v>0.117017148423597</v>
       </c>
       <c r="H65">
-        <v>0.4606682564521231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.05763176624971354</v>
+      </c>
+      <c r="I65">
+        <v>0.459684913031267</v>
+      </c>
+      <c r="J65">
+        <v>0.4795994265823803</v>
+      </c>
+      <c r="K65">
+        <v>-0.07249233096623725</v>
+      </c>
+      <c r="L65">
+        <v>-0.2690809604463471</v>
+      </c>
+      <c r="M65">
+        <v>-0.02500950855140277</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B66">
-        <v>0.158267569716271</v>
+        <v>0.1343235891925995</v>
       </c>
       <c r="C66">
-        <v>0.0955527710619168</v>
+        <v>0.1253605306468519</v>
       </c>
       <c r="D66">
-        <v>0.007715361675600437</v>
+        <v>-0.1032746366540479</v>
       </c>
       <c r="E66">
-        <v>0.02124420895747149</v>
+        <v>0.03135406914212488</v>
       </c>
       <c r="F66">
-        <v>-0.01638242810728832</v>
+        <v>0.1650014557685871</v>
       </c>
       <c r="G66">
-        <v>-0.2358150453559776</v>
+        <v>-0.1172271534533946</v>
       </c>
       <c r="H66">
-        <v>-0.2518459070201141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1062779944427847</v>
+      </c>
+      <c r="I66">
+        <v>-0.1004153901530863</v>
+      </c>
+      <c r="J66">
+        <v>-0.1153977817421248</v>
+      </c>
+      <c r="K66">
+        <v>0.1744724304920003</v>
+      </c>
+      <c r="L66">
+        <v>-0.03136186779426577</v>
+      </c>
+      <c r="M66">
+        <v>-0.09297527484481322</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B67">
-        <v>0.09074100521705598</v>
+        <v>0.07469604997245731</v>
       </c>
       <c r="C67">
-        <v>0.05452995307561642</v>
+        <v>0.05395775448128925</v>
       </c>
       <c r="D67">
-        <v>-0.02507122327750269</v>
+        <v>0.01773460760099033</v>
       </c>
       <c r="E67">
-        <v>-0.0007921938666195794</v>
+        <v>-0.03455865566044836</v>
       </c>
       <c r="F67">
-        <v>-0.03303635163625193</v>
+        <v>-0.04665523246617745</v>
       </c>
       <c r="G67">
-        <v>-0.03365239722792815</v>
+        <v>-0.06546502571455221</v>
       </c>
       <c r="H67">
-        <v>-0.0004688846416150892</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.02069741686380601</v>
+      </c>
+      <c r="I67">
+        <v>-0.01012858710298015</v>
+      </c>
+      <c r="J67">
+        <v>-0.02974358434028961</v>
+      </c>
+      <c r="K67">
+        <v>-0.007290268876132816</v>
+      </c>
+      <c r="L67">
+        <v>0.1659617501999882</v>
+      </c>
+      <c r="M67">
+        <v>-0.02380980479216946</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B68">
-        <v>0.0750211786354783</v>
+        <v>0.1226089318680946</v>
       </c>
       <c r="C68">
-        <v>-0.2893817136600639</v>
+        <v>-0.2709432076836468</v>
       </c>
       <c r="D68">
-        <v>-0.02772664620069145</v>
+        <v>-0.007325089029586763</v>
       </c>
       <c r="E68">
-        <v>-0.02900480161045208</v>
+        <v>0.01450682687724529</v>
       </c>
       <c r="F68">
-        <v>-0.02877063500154796</v>
+        <v>0.04028066336324823</v>
       </c>
       <c r="G68">
-        <v>0.03866090387314746</v>
+        <v>-0.02437474445014984</v>
       </c>
       <c r="H68">
-        <v>-0.01317651639649717</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>-0.004172956139927934</v>
+      </c>
+      <c r="I68">
+        <v>0.02480850762536779</v>
+      </c>
+      <c r="J68">
+        <v>0.03370319775838607</v>
+      </c>
+      <c r="K68">
+        <v>-0.01786818283491693</v>
+      </c>
+      <c r="L68">
+        <v>-0.04896690442278057</v>
+      </c>
+      <c r="M68">
+        <v>0.009864363237393124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B69">
-        <v>0.03390710051496849</v>
+        <v>0.04513751401607248</v>
       </c>
       <c r="C69">
-        <v>0.018420209337608</v>
+        <v>0.01944451152705373</v>
       </c>
       <c r="D69">
-        <v>-0.005974142725208017</v>
+        <v>0.004317706752940477</v>
       </c>
       <c r="E69">
-        <v>-0.006934295594358029</v>
+        <v>-0.0004231852127105936</v>
       </c>
       <c r="F69">
-        <v>-0.0335960987648153</v>
+        <v>0.02316006300310138</v>
       </c>
       <c r="G69">
-        <v>-0.03478702075263158</v>
+        <v>-0.0354746498685214</v>
       </c>
       <c r="H69">
-        <v>0.02244803564039562</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>-0.000562569757472768</v>
+      </c>
+      <c r="I69">
+        <v>0.005797815187515191</v>
+      </c>
+      <c r="J69">
+        <v>-0.001933907832746214</v>
+      </c>
+      <c r="K69">
+        <v>-0.01744592431000487</v>
+      </c>
+      <c r="L69">
+        <v>0.0101125270190826</v>
+      </c>
+      <c r="M69">
+        <v>0.05714232785264247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.06320097924902691</v>
+        <v>0.05329188851065451</v>
       </c>
       <c r="C70">
-        <v>0.01453634694861097</v>
+        <v>0.02518177226738983</v>
       </c>
       <c r="D70">
-        <v>-0.03716114383904903</v>
+        <v>-0.0286462974083771</v>
       </c>
       <c r="E70">
-        <v>-0.0002997877864019433</v>
+        <v>-0.02437234089692726</v>
       </c>
       <c r="F70">
-        <v>0.08673305776158179</v>
+        <v>0.03778729045684819</v>
       </c>
       <c r="G70">
-        <v>0.03549846397741455</v>
+        <v>0.02370078870055484</v>
       </c>
       <c r="H70">
-        <v>0.007586486214047721</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.02197845185401311</v>
+      </c>
+      <c r="I70">
+        <v>0.09454836407292012</v>
+      </c>
+      <c r="J70">
+        <v>-0.08409622430609177</v>
+      </c>
+      <c r="K70">
+        <v>-0.3322436091960842</v>
+      </c>
+      <c r="L70">
+        <v>0.1819441569687358</v>
+      </c>
+      <c r="M70">
+        <v>-0.05614178449343982</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
-        <v>0.08303225487954116</v>
+        <v>0.1380739217848777</v>
       </c>
       <c r="C71">
-        <v>-0.284758225027618</v>
+        <v>-0.2796298414501796</v>
       </c>
       <c r="D71">
-        <v>-0.05837579931655052</v>
+        <v>-0.01300534393078169</v>
       </c>
       <c r="E71">
-        <v>-0.01405376749445378</v>
+        <v>-0.00721607188840158</v>
       </c>
       <c r="F71">
-        <v>0.005895099380218752</v>
+        <v>0.03308157148724118</v>
       </c>
       <c r="G71">
-        <v>0.01770821759579886</v>
+        <v>-0.03364998482488868</v>
       </c>
       <c r="H71">
-        <v>-0.01895694299021847</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.02141027555503304</v>
+      </c>
+      <c r="I71">
+        <v>0.01230831808323709</v>
+      </c>
+      <c r="J71">
+        <v>0.0110564130876152</v>
+      </c>
+      <c r="K71">
+        <v>0.004730802219404108</v>
+      </c>
+      <c r="L71">
+        <v>-0.02872344602007064</v>
+      </c>
+      <c r="M71">
+        <v>0.009696960000212088</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
-        <v>0.1797300745485078</v>
+        <v>0.1482244283089196</v>
       </c>
       <c r="C72">
-        <v>0.002346672666533399</v>
+        <v>0.03011541816718689</v>
       </c>
       <c r="D72">
-        <v>0.2331977131481333</v>
+        <v>0.007429630371022721</v>
       </c>
       <c r="E72">
-        <v>0.02810897163113411</v>
+        <v>0.1559748102042629</v>
       </c>
       <c r="F72">
-        <v>-0.04350508367221039</v>
+        <v>0.01260179549603685</v>
       </c>
       <c r="G72">
-        <v>-0.04046887569828781</v>
+        <v>-0.04234491672071779</v>
       </c>
       <c r="H72">
-        <v>0.1258443593197697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.02715895810995974</v>
+      </c>
+      <c r="I72">
+        <v>0.01998950195639407</v>
+      </c>
+      <c r="J72">
+        <v>0.1475589510241402</v>
+      </c>
+      <c r="K72">
+        <v>0.06664196583466026</v>
+      </c>
+      <c r="L72">
+        <v>0.008138510466617356</v>
+      </c>
+      <c r="M72">
+        <v>-0.01478518929334619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
-        <v>0.291235518194736</v>
+        <v>0.2441506366180786</v>
       </c>
       <c r="C73">
-        <v>0.1662390044171363</v>
+        <v>0.1489194795156474</v>
       </c>
       <c r="D73">
-        <v>-0.09612694876664138</v>
+        <v>-0.140486028065811</v>
       </c>
       <c r="E73">
-        <v>0.05452910375252674</v>
+        <v>-0.1189239065166377</v>
       </c>
       <c r="F73">
-        <v>0.251451017831429</v>
+        <v>-0.4654725369480495</v>
       </c>
       <c r="G73">
-        <v>0.1142489226901721</v>
+        <v>0.02322810293106099</v>
       </c>
       <c r="H73">
-        <v>0.03763782789681639</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.315369650216172</v>
+      </c>
+      <c r="I73">
+        <v>-0.01116915958252412</v>
+      </c>
+      <c r="J73">
+        <v>-0.148780538566579</v>
+      </c>
+      <c r="K73">
+        <v>0.2560704258972762</v>
+      </c>
+      <c r="L73">
+        <v>-0.09281114307147681</v>
+      </c>
+      <c r="M73">
+        <v>-0.1094517717323419</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
-        <v>0.09386176449886922</v>
+        <v>0.1007439900732378</v>
       </c>
       <c r="C74">
-        <v>0.03394173759295109</v>
+        <v>0.07355719104914106</v>
       </c>
       <c r="D74">
-        <v>-0.007100589628179638</v>
+        <v>-0.01062584815300074</v>
       </c>
       <c r="E74">
-        <v>0.03799053057918674</v>
+        <v>0.004360653899014824</v>
       </c>
       <c r="F74">
-        <v>-0.09937072722959832</v>
+        <v>-0.0404907444843278</v>
       </c>
       <c r="G74">
-        <v>0.05924102629185261</v>
+        <v>-0.1396799733326577</v>
       </c>
       <c r="H74">
-        <v>-0.0311677923423778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>-0.05407914234132274</v>
+      </c>
+      <c r="I74">
+        <v>-0.03993648003083283</v>
+      </c>
+      <c r="J74">
+        <v>0.04285886501803304</v>
+      </c>
+      <c r="K74">
+        <v>-0.003486088636920599</v>
+      </c>
+      <c r="L74">
+        <v>-0.007176048778150855</v>
+      </c>
+      <c r="M74">
+        <v>0.003638608090619703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
-        <v>0.09721430439564607</v>
+        <v>0.09701354176440384</v>
       </c>
       <c r="C75">
-        <v>0.01812835479087228</v>
+        <v>0.05135921898684868</v>
       </c>
       <c r="D75">
-        <v>-0.002978663181760954</v>
+        <v>-0.008623781367024292</v>
       </c>
       <c r="E75">
-        <v>0.05020880951399821</v>
+        <v>-0.004746717375693869</v>
       </c>
       <c r="F75">
-        <v>-0.1191930186280214</v>
+        <v>-0.03486109337066941</v>
       </c>
       <c r="G75">
-        <v>0.04784578029151489</v>
+        <v>-0.06847350215499744</v>
       </c>
       <c r="H75">
-        <v>-0.0001044843150586512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.1151046606579186</v>
+      </c>
+      <c r="I75">
+        <v>-0.02455540174342734</v>
+      </c>
+      <c r="J75">
+        <v>0.05077142695712578</v>
+      </c>
+      <c r="K75">
+        <v>0.008198960150547418</v>
+      </c>
+      <c r="L75">
+        <v>0.0142910295085128</v>
+      </c>
+      <c r="M75">
+        <v>0.05009709174451206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B76">
-        <v>0.13404407738148</v>
+        <v>0.07799954548570234</v>
       </c>
       <c r="C76">
-        <v>0.02848011132033688</v>
+        <v>0.05563674118311852</v>
       </c>
       <c r="D76">
-        <v>-0.01798096640012701</v>
+        <v>-0.003277242574350047</v>
       </c>
       <c r="E76">
-        <v>0.04803983781127464</v>
+        <v>-0.01912191990810732</v>
       </c>
       <c r="F76">
-        <v>-0.2186683975097698</v>
+        <v>-0.06525107113821414</v>
       </c>
       <c r="G76">
-        <v>0.07020191133581878</v>
+        <v>-0.1082937428571179</v>
       </c>
       <c r="H76">
-        <v>-0.001506277732713273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.1665891028803938</v>
+      </c>
+      <c r="I76">
+        <v>-0.05860251599155634</v>
+      </c>
+      <c r="J76">
+        <v>0.02127124027832836</v>
+      </c>
+      <c r="K76">
+        <v>-0.02929021179420058</v>
+      </c>
+      <c r="L76">
+        <v>0.01683195910720877</v>
+      </c>
+      <c r="M76">
+        <v>-0.01996913735684638</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B77">
-        <v>0.07823093540924723</v>
+        <v>0.07009502093737383</v>
       </c>
       <c r="C77">
-        <v>0.03280706534035134</v>
+        <v>0.02739311008250785</v>
       </c>
       <c r="D77">
-        <v>-0.02772011895553415</v>
+        <v>-0.02656232970296669</v>
       </c>
       <c r="E77">
-        <v>-0.1065680132779053</v>
+        <v>-0.03405894568999352</v>
       </c>
       <c r="F77">
-        <v>0.1822843008486112</v>
+        <v>0.2428012353323155</v>
       </c>
       <c r="G77">
-        <v>-0.667010728406928</v>
+        <v>0.07326011501151908</v>
       </c>
       <c r="H77">
-        <v>0.2544777372354849</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.1864072360013406</v>
+      </c>
+      <c r="I77">
+        <v>0.2486990447066618</v>
+      </c>
+      <c r="J77">
+        <v>0.07186979953522031</v>
+      </c>
+      <c r="K77">
+        <v>0.3391820637884924</v>
+      </c>
+      <c r="L77">
+        <v>0.6168685533744624</v>
+      </c>
+      <c r="M77">
+        <v>-0.05020937370674449</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B78">
-        <v>0.1736043800346056</v>
+        <v>0.1522022617905807</v>
       </c>
       <c r="C78">
-        <v>0.09555055074561757</v>
+        <v>0.1099968931108931</v>
       </c>
       <c r="D78">
-        <v>-0.04037058926283538</v>
+        <v>0.1889533657959828</v>
       </c>
       <c r="E78">
-        <v>-0.2056657912099641</v>
+        <v>-0.1152743000726533</v>
       </c>
       <c r="F78">
-        <v>-0.02677779976986721</v>
+        <v>0.1291492686088737</v>
       </c>
       <c r="G78">
-        <v>-0.08167885681008311</v>
+        <v>0.5540120058708633</v>
       </c>
       <c r="H78">
-        <v>0.0907780529495959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5610396278643038</v>
+      </c>
+      <c r="I78">
+        <v>0.06677351970463032</v>
+      </c>
+      <c r="J78">
+        <v>-0.1824846768461865</v>
+      </c>
+      <c r="K78">
+        <v>0.3003216396734004</v>
+      </c>
+      <c r="L78">
+        <v>-0.06807764687986705</v>
+      </c>
+      <c r="M78">
+        <v>-0.19110540251349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B79">
-        <v>0.1389245805980911</v>
+        <v>0.1346925620416901</v>
       </c>
       <c r="C79">
-        <v>0.03351371207685853</v>
+        <v>0.07294308808571816</v>
       </c>
       <c r="D79">
-        <v>-0.004748546582811253</v>
+        <v>-0.005433392312438493</v>
       </c>
       <c r="E79">
-        <v>0.07303347235481629</v>
+        <v>-0.01506204982161932</v>
       </c>
       <c r="F79">
-        <v>-0.1627314342436138</v>
+        <v>-0.006435683358403152</v>
       </c>
       <c r="G79">
-        <v>0.02587181076654249</v>
+        <v>-0.1246509468786513</v>
       </c>
       <c r="H79">
-        <v>-0.007395619549481538</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.115497893664453</v>
+      </c>
+      <c r="I79">
+        <v>-0.06993668962370736</v>
+      </c>
+      <c r="J79">
+        <v>0.1021293000954902</v>
+      </c>
+      <c r="K79">
+        <v>-0.008312755174625149</v>
+      </c>
+      <c r="L79">
+        <v>0.02506058553945347</v>
+      </c>
+      <c r="M79">
+        <v>0.04958450971813221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B80">
-        <v>0.03599957373931867</v>
+        <v>0.05905424755647221</v>
       </c>
       <c r="C80">
-        <v>0.01311350581051873</v>
+        <v>0.02979267953219201</v>
       </c>
       <c r="D80">
-        <v>-0.01234001918760735</v>
+        <v>-0.06947536009204823</v>
       </c>
       <c r="E80">
-        <v>0.02926422794041148</v>
+        <v>-0.007926014383871421</v>
       </c>
       <c r="F80">
-        <v>0.01003607105469586</v>
+        <v>0.03905014636416949</v>
       </c>
       <c r="G80">
-        <v>0.01366043498834412</v>
+        <v>-0.001344393944233241</v>
       </c>
       <c r="H80">
-        <v>0.04751461412558656</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>-0.0189980139917478</v>
+      </c>
+      <c r="I80">
+        <v>0.07736288207724412</v>
+      </c>
+      <c r="J80">
+        <v>-0.0752702255394609</v>
+      </c>
+      <c r="K80">
+        <v>-0.1544708508507246</v>
+      </c>
+      <c r="L80">
+        <v>-0.135570607460361</v>
+      </c>
+      <c r="M80">
+        <v>0.006408365325033544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B81">
-        <v>0.1058243010424776</v>
+        <v>0.1207591410813775</v>
       </c>
       <c r="C81">
-        <v>0.0319477640390875</v>
+        <v>0.06340300486534953</v>
       </c>
       <c r="D81">
-        <v>-0.01503433779077123</v>
+        <v>-0.004014514046143562</v>
       </c>
       <c r="E81">
-        <v>0.0827620775046211</v>
+        <v>-0.004759445932761589</v>
       </c>
       <c r="F81">
-        <v>-0.1220861108203974</v>
+        <v>0.009441659493212077</v>
       </c>
       <c r="G81">
-        <v>0.01805538592806001</v>
+        <v>-0.08511949122310933</v>
       </c>
       <c r="H81">
-        <v>0.03715035830617388</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>-0.09998792667664333</v>
+      </c>
+      <c r="I81">
+        <v>-0.07023679454663943</v>
+      </c>
+      <c r="J81">
+        <v>0.07007513312174762</v>
+      </c>
+      <c r="K81">
+        <v>-0.003041273850165457</v>
+      </c>
+      <c r="L81">
+        <v>0.01837874361043242</v>
+      </c>
+      <c r="M81">
+        <v>0.06929641491745243</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B82">
-        <v>0.1119055102529469</v>
+        <v>0.1251663097137936</v>
       </c>
       <c r="C82">
-        <v>0.02822561037618183</v>
+        <v>0.05121602202002998</v>
       </c>
       <c r="D82">
-        <v>-0.06540667099214086</v>
+        <v>-0.02724103082009866</v>
       </c>
       <c r="E82">
-        <v>0.105882675332719</v>
+        <v>-0.01480622571102827</v>
       </c>
       <c r="F82">
-        <v>-0.2266628358172061</v>
+        <v>-0.02526064437820081</v>
       </c>
       <c r="G82">
-        <v>0.03040842953875324</v>
+        <v>-0.1914274193768525</v>
       </c>
       <c r="H82">
-        <v>-0.09659692578527085</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.1453269909786966</v>
+      </c>
+      <c r="I82">
+        <v>-0.1240569412458637</v>
+      </c>
+      <c r="J82">
+        <v>0.01370069458711915</v>
+      </c>
+      <c r="K82">
+        <v>-0.06431308205845378</v>
+      </c>
+      <c r="L82">
+        <v>0.04481728292247863</v>
+      </c>
+      <c r="M82">
+        <v>0.04874252391617766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B83">
-        <v>0.08403203985914694</v>
+        <v>0.07605598227574616</v>
       </c>
       <c r="C83">
-        <v>0.0675345189715318</v>
+        <v>0.08196522502550427</v>
       </c>
       <c r="D83">
-        <v>-0.05244290941901997</v>
+        <v>-0.03025788041484281</v>
       </c>
       <c r="E83">
-        <v>-0.006728902708659365</v>
+        <v>0.002173825234788204</v>
       </c>
       <c r="F83">
-        <v>0.0473631565250346</v>
+        <v>0.05370107782133608</v>
       </c>
       <c r="G83">
-        <v>-0.03277945893986742</v>
+        <v>-0.09120269581430059</v>
       </c>
       <c r="H83">
-        <v>-0.09958864625041472</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.02591478475178667</v>
+      </c>
+      <c r="I83">
+        <v>0.08911821742215711</v>
+      </c>
+      <c r="J83">
+        <v>-0.1272810248929966</v>
+      </c>
+      <c r="K83">
+        <v>-0.1148323967475247</v>
+      </c>
+      <c r="L83">
+        <v>0.03012192824972636</v>
+      </c>
+      <c r="M83">
+        <v>-0.0723247639032865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B84">
-        <v>0.05748690926321756</v>
+        <v>0.055753223095116</v>
       </c>
       <c r="C84">
-        <v>0.04624991608809049</v>
+        <v>-0.01865792284177678</v>
       </c>
       <c r="D84">
-        <v>0.05486018876597069</v>
+        <v>-0.00347890946992506</v>
       </c>
       <c r="E84">
-        <v>-0.01665062711459935</v>
+        <v>0.001772654047375621</v>
       </c>
       <c r="F84">
-        <v>-0.06460200233945901</v>
+        <v>0.01791092561867324</v>
       </c>
       <c r="G84">
-        <v>0.1419243070339782</v>
+        <v>0.1797946840339785</v>
       </c>
       <c r="H84">
-        <v>-0.08061744587411691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.07478269766452519</v>
+      </c>
+      <c r="I84">
+        <v>-0.2195701754445309</v>
+      </c>
+      <c r="J84">
+        <v>-0.1289942742902998</v>
+      </c>
+      <c r="K84">
+        <v>-0.1458816986976334</v>
+      </c>
+      <c r="L84">
+        <v>-0.1480449377943784</v>
+      </c>
+      <c r="M84">
+        <v>-0.1541806906963121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B85">
-        <v>0.0942115535738194</v>
+        <v>0.1109512527587089</v>
       </c>
       <c r="C85">
-        <v>0.03514026841189237</v>
+        <v>0.05036141243643453</v>
       </c>
       <c r="D85">
-        <v>-0.03025964881513996</v>
+        <v>-0.01393565426985004</v>
       </c>
       <c r="E85">
-        <v>0.06196020136415596</v>
+        <v>-0.03870412943696248</v>
       </c>
       <c r="F85">
-        <v>-0.183667824824545</v>
+        <v>-0.006632079603792501</v>
       </c>
       <c r="G85">
-        <v>-0.002624152735440224</v>
+        <v>-0.1286959731960035</v>
       </c>
       <c r="H85">
-        <v>0.01068553318683333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.1136561401559558</v>
+      </c>
+      <c r="I85">
+        <v>-0.07132056183292915</v>
+      </c>
+      <c r="J85">
+        <v>0.1153228718077669</v>
+      </c>
+      <c r="K85">
+        <v>0.009441845347474824</v>
+      </c>
+      <c r="L85">
+        <v>0.031573153964687</v>
+      </c>
+      <c r="M85">
+        <v>0.04478878115174984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B86">
-        <v>0.04777042419680259</v>
+        <v>0.07473431030802494</v>
       </c>
       <c r="C86">
-        <v>0.04022058619442474</v>
+        <v>0.02549931967670727</v>
       </c>
       <c r="D86">
-        <v>-0.03025438394353294</v>
+        <v>0.01432373511229678</v>
       </c>
       <c r="E86">
-        <v>-0.03634761791254362</v>
+        <v>-0.1297227578115281</v>
       </c>
       <c r="F86">
-        <v>0.008277700699204801</v>
+        <v>0.04678644934052772</v>
       </c>
       <c r="G86">
-        <v>-0.02421233480171305</v>
+        <v>0.409965986855085</v>
       </c>
       <c r="H86">
-        <v>0.1639492157252795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.2129906127458851</v>
+      </c>
+      <c r="I86">
+        <v>-0.5687042188418981</v>
+      </c>
+      <c r="J86">
+        <v>0.4196113043112859</v>
+      </c>
+      <c r="K86">
+        <v>-0.1984666475520982</v>
+      </c>
+      <c r="L86">
+        <v>0.05849072500219261</v>
+      </c>
+      <c r="M86">
+        <v>-0.1818359732756061</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B87">
-        <v>0.09299986856210431</v>
+        <v>0.1110434491885179</v>
       </c>
       <c r="C87">
-        <v>0.05280368847582178</v>
+        <v>0.08303405769856401</v>
       </c>
       <c r="D87">
-        <v>-0.00768592031344094</v>
+        <v>0.02516966353519822</v>
       </c>
       <c r="E87">
-        <v>-0.05695706470161902</v>
+        <v>0.01451679320958451</v>
       </c>
       <c r="F87">
-        <v>0.01452150902872451</v>
+        <v>0.1313413761460049</v>
       </c>
       <c r="G87">
-        <v>-0.1324331450326273</v>
+        <v>0.04835897270182568</v>
       </c>
       <c r="H87">
-        <v>-0.02078691734205116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.1064126775235708</v>
+      </c>
+      <c r="I87">
+        <v>0.07984306150054946</v>
+      </c>
+      <c r="J87">
+        <v>0.001670739055922619</v>
+      </c>
+      <c r="K87">
+        <v>-0.03315652924389968</v>
+      </c>
+      <c r="L87">
+        <v>0.2203135971978982</v>
+      </c>
+      <c r="M87">
+        <v>0.1231674797580435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B88">
-        <v>0.05621169577293806</v>
+        <v>0.05881622855789208</v>
       </c>
       <c r="C88">
-        <v>0.03862370288954447</v>
+        <v>0.05468883539765895</v>
       </c>
       <c r="D88">
-        <v>-0.02035708761096913</v>
+        <v>-0.03158571449025612</v>
       </c>
       <c r="E88">
-        <v>-0.003034580544150483</v>
+        <v>-0.005737867863718021</v>
       </c>
       <c r="F88">
-        <v>0.0117812109460144</v>
+        <v>0.04046792435013843</v>
       </c>
       <c r="G88">
-        <v>-0.03456711128330046</v>
+        <v>-0.04235833114443588</v>
       </c>
       <c r="H88">
-        <v>-0.03552021618154939</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.02022681634771317</v>
+      </c>
+      <c r="I88">
+        <v>-0.004016161051858877</v>
+      </c>
+      <c r="J88">
+        <v>-0.03738852760158486</v>
+      </c>
+      <c r="K88">
+        <v>-0.01700215753756545</v>
+      </c>
+      <c r="L88">
+        <v>-0.05658822033417112</v>
+      </c>
+      <c r="M88">
+        <v>0.05541498603910475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B89">
-        <v>0.1351429493836987</v>
+        <v>0.2060407357623623</v>
       </c>
       <c r="C89">
-        <v>-0.3499321191606555</v>
+        <v>-0.3660821942400383</v>
       </c>
       <c r="D89">
-        <v>-0.09723192222762096</v>
+        <v>0.04369131217028633</v>
       </c>
       <c r="E89">
-        <v>-0.08664162680991384</v>
+        <v>-0.05209567642559722</v>
       </c>
       <c r="F89">
-        <v>0.05882436145692516</v>
+        <v>0.0248291494581732</v>
       </c>
       <c r="G89">
-        <v>-0.02451976544262803</v>
+        <v>0.02346639433470984</v>
       </c>
       <c r="H89">
-        <v>-0.02941298314392346</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02289521299256717</v>
+      </c>
+      <c r="I89">
+        <v>0.006820528472865004</v>
+      </c>
+      <c r="J89">
+        <v>-0.07474967910657011</v>
+      </c>
+      <c r="K89">
+        <v>-0.01301010959223078</v>
+      </c>
+      <c r="L89">
+        <v>-0.01898064951243066</v>
+      </c>
+      <c r="M89">
+        <v>0.01273371471720385</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B90">
-        <v>0.1063802392629176</v>
+        <v>0.1507024623219939</v>
       </c>
       <c r="C90">
-        <v>-0.2762788145082435</v>
+        <v>-0.2714632398292567</v>
       </c>
       <c r="D90">
-        <v>-0.04369337425081574</v>
+        <v>-0.009236936179305377</v>
       </c>
       <c r="E90">
-        <v>-0.06056139103935313</v>
+        <v>-0.01101746190607994</v>
       </c>
       <c r="F90">
-        <v>0.03756716559043932</v>
+        <v>0.03136106660586931</v>
       </c>
       <c r="G90">
-        <v>-0.1030465247183023</v>
+        <v>-0.01403371504900873</v>
       </c>
       <c r="H90">
-        <v>-0.02982621350604892</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06954051664843616</v>
+      </c>
+      <c r="I90">
+        <v>-0.003002729954235686</v>
+      </c>
+      <c r="J90">
+        <v>-0.01862795036333824</v>
+      </c>
+      <c r="K90">
+        <v>0.04054285316766117</v>
+      </c>
+      <c r="L90">
+        <v>-0.02428815737965283</v>
+      </c>
+      <c r="M90">
+        <v>-0.04131879714268213</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B91">
-        <v>0.08035847243999215</v>
+        <v>0.08095112414624435</v>
       </c>
       <c r="C91">
-        <v>0.0164679918585876</v>
+        <v>0.05357186094361208</v>
       </c>
       <c r="D91">
-        <v>-0.01326333030632515</v>
+        <v>0.0006147571100444391</v>
       </c>
       <c r="E91">
-        <v>0.01162592999318962</v>
+        <v>-0.01167609830398096</v>
       </c>
       <c r="F91">
-        <v>-0.09561291965646318</v>
+        <v>-0.01762063481995277</v>
       </c>
       <c r="G91">
-        <v>0.0625465056227504</v>
+        <v>-0.07110965729634974</v>
       </c>
       <c r="H91">
-        <v>-0.02603151581120709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.0694808004944624</v>
+      </c>
+      <c r="I91">
+        <v>-0.0425237119754891</v>
+      </c>
+      <c r="J91">
+        <v>0.02537795183259716</v>
+      </c>
+      <c r="K91">
+        <v>0.001037412092475839</v>
+      </c>
+      <c r="L91">
+        <v>-0.01024614235739159</v>
+      </c>
+      <c r="M91">
+        <v>-0.01983220485986146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B92">
-        <v>0.1116462035869173</v>
+        <v>0.1706295216877856</v>
       </c>
       <c r="C92">
-        <v>-0.3203248090295003</v>
+        <v>-0.3140068998807727</v>
       </c>
       <c r="D92">
-        <v>-0.07598587639412292</v>
+        <v>0.03399848198156637</v>
       </c>
       <c r="E92">
-        <v>-0.05221340132745052</v>
+        <v>-0.03138070343262492</v>
       </c>
       <c r="F92">
-        <v>0.01257473978606426</v>
+        <v>0.0453432089671575</v>
       </c>
       <c r="G92">
-        <v>0.09661837663960517</v>
+        <v>-0.02267340113659362</v>
       </c>
       <c r="H92">
-        <v>-0.03195551016008712</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>-0.0311812581408044</v>
+      </c>
+      <c r="I92">
+        <v>-0.005408073396409301</v>
+      </c>
+      <c r="J92">
+        <v>-0.04642228002924573</v>
+      </c>
+      <c r="K92">
+        <v>-0.01172384031724752</v>
+      </c>
+      <c r="L92">
+        <v>-0.04549040179033214</v>
+      </c>
+      <c r="M92">
+        <v>0.05621298079482565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B93">
-        <v>0.1165713133109104</v>
+        <v>0.1606596186625492</v>
       </c>
       <c r="C93">
-        <v>-0.2651665467651935</v>
+        <v>-0.2912437462805704</v>
       </c>
       <c r="D93">
-        <v>-0.04780496421170843</v>
+        <v>-0.03240934757568629</v>
       </c>
       <c r="E93">
-        <v>-0.02723779641653773</v>
+        <v>0.0008911302637537757</v>
       </c>
       <c r="F93">
-        <v>0.03306322999208193</v>
+        <v>0.01827047577296518</v>
       </c>
       <c r="G93">
-        <v>-0.01787229800257184</v>
+        <v>0.005790756131168592</v>
       </c>
       <c r="H93">
-        <v>0.009056725511042068</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.04000320587759826</v>
+      </c>
+      <c r="I93">
+        <v>-0.007672418185399506</v>
+      </c>
+      <c r="J93">
+        <v>0.01374768895541569</v>
+      </c>
+      <c r="K93">
+        <v>-0.03492582657658044</v>
+      </c>
+      <c r="L93">
+        <v>-0.004628609045377527</v>
+      </c>
+      <c r="M93">
+        <v>-0.002304149010606385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B94">
-        <v>0.09785325598563947</v>
+        <v>0.1138542725854948</v>
       </c>
       <c r="C94">
-        <v>0.05389730345736909</v>
+        <v>0.06859837952089273</v>
       </c>
       <c r="D94">
-        <v>-0.006525427814547052</v>
+        <v>0.01412578912532189</v>
       </c>
       <c r="E94">
-        <v>0.01822751498688452</v>
+        <v>-0.03605802918749479</v>
       </c>
       <c r="F94">
-        <v>-0.163097044784412</v>
+        <v>-0.03796458510090594</v>
       </c>
       <c r="G94">
-        <v>0.08051672214156111</v>
+        <v>-0.1087911430899483</v>
       </c>
       <c r="H94">
-        <v>-0.01568316669593664</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.1044124647939926</v>
+      </c>
+      <c r="I94">
+        <v>-0.03669872067918303</v>
+      </c>
+      <c r="J94">
+        <v>0.03442740526955614</v>
+      </c>
+      <c r="K94">
+        <v>0.01560472614996589</v>
+      </c>
+      <c r="L94">
+        <v>-0.05016691630689844</v>
+      </c>
+      <c r="M94">
+        <v>0.002069301611179061</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B95">
-        <v>0.1185901430267026</v>
+        <v>0.1137138054694499</v>
       </c>
       <c r="C95">
-        <v>0.08089975023646567</v>
+        <v>0.06691508289666566</v>
       </c>
       <c r="D95">
-        <v>-0.0618550138055439</v>
+        <v>0.01847243300151067</v>
       </c>
       <c r="E95">
-        <v>-0.04733492521834138</v>
+        <v>-0.07481561140599569</v>
       </c>
       <c r="F95">
-        <v>0.04561227082582798</v>
+        <v>0.07520825592203934</v>
       </c>
       <c r="G95">
-        <v>-0.03897869255129687</v>
+        <v>0.2091373367829687</v>
       </c>
       <c r="H95">
-        <v>-0.1009756383820752</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.1350580716867348</v>
+      </c>
+      <c r="I95">
+        <v>0.006156803112628377</v>
+      </c>
+      <c r="J95">
+        <v>-0.008497527950393949</v>
+      </c>
+      <c r="K95">
+        <v>-0.05978306041743471</v>
+      </c>
+      <c r="L95">
+        <v>-0.02572589850500236</v>
+      </c>
+      <c r="M95">
+        <v>0.6268892751607875</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>4.496976153567477e-05</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.002456860336025669</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.0003235673786479577</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.002542344288664275</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.0005379461922019598</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.004918251977775085</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.004537057235924676</v>
+      </c>
+      <c r="I96">
+        <v>0.002070224700984669</v>
+      </c>
+      <c r="J96">
+        <v>0.0001584022026260622</v>
+      </c>
+      <c r="K96">
+        <v>0.004927452361346591</v>
+      </c>
+      <c r="L96">
+        <v>-0.002434048837766552</v>
+      </c>
+      <c r="M96">
+        <v>-0.009849799495427941</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B97">
-        <v>0.2293646705623273</v>
+        <v>0.1580283780256276</v>
       </c>
       <c r="C97">
-        <v>-0.1089395048913515</v>
+        <v>0.04620178922032107</v>
       </c>
       <c r="D97">
-        <v>0.9028196567169416</v>
+        <v>0.129349340101614</v>
       </c>
       <c r="E97">
-        <v>0.03724851853651393</v>
+        <v>0.9318928696733849</v>
       </c>
       <c r="F97">
-        <v>0.1027192976730388</v>
+        <v>-0.02123772836990984</v>
       </c>
       <c r="G97">
-        <v>-0.01487939807149882</v>
+        <v>0.1189203814894908</v>
       </c>
       <c r="H97">
-        <v>-0.009318199119172929</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>0.03926878461458672</v>
+      </c>
+      <c r="I97">
+        <v>-0.09408445558808676</v>
+      </c>
+      <c r="J97">
+        <v>-0.02261240725921296</v>
+      </c>
+      <c r="K97">
+        <v>0.03016997373640239</v>
+      </c>
+      <c r="L97">
+        <v>0.01699365526916459</v>
+      </c>
+      <c r="M97">
+        <v>0.0003650108711184064</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B98">
-        <v>0.2874612348009177</v>
+        <v>0.2544390238822285</v>
       </c>
       <c r="C98">
-        <v>0.08699718687446645</v>
+        <v>0.1092972922211864</v>
       </c>
       <c r="D98">
-        <v>-0.09415790776349134</v>
+        <v>0.02475879375958276</v>
       </c>
       <c r="E98">
-        <v>0.1784942732799146</v>
+        <v>-0.006709940880012276</v>
       </c>
       <c r="F98">
-        <v>0.3180692646586124</v>
+        <v>-0.3786570857622125</v>
       </c>
       <c r="G98">
-        <v>0.277108566812592</v>
+        <v>0.1781563933249845</v>
       </c>
       <c r="H98">
-        <v>-0.1358084788379105</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.04327397262636277</v>
+      </c>
+      <c r="I98">
+        <v>0.1986853125104494</v>
+      </c>
+      <c r="J98">
+        <v>-0.3581810425065608</v>
+      </c>
+      <c r="K98">
+        <v>-0.4243463694421816</v>
+      </c>
+      <c r="L98">
+        <v>0.2297556544155347</v>
+      </c>
+      <c r="M98">
+        <v>-0.02589755628008289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B99">
-        <v>0.06882665524105203</v>
+        <v>0.066495566595176</v>
       </c>
       <c r="C99">
-        <v>0.04914691813346596</v>
+        <v>0.04921989976150922</v>
       </c>
       <c r="D99">
-        <v>-0.03081339597701066</v>
+        <v>0.001750924595639767</v>
       </c>
       <c r="E99">
-        <v>0.002714860390014717</v>
+        <v>-0.05047468952291509</v>
       </c>
       <c r="F99">
-        <v>-0.01700400656114455</v>
+        <v>-0.01164246839400815</v>
       </c>
       <c r="G99">
-        <v>-0.03035301678254261</v>
+        <v>-0.02023247476009817</v>
       </c>
       <c r="H99">
-        <v>-0.01666522135409626</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>-0.02586292162341723</v>
+      </c>
+      <c r="I99">
+        <v>-0.009888477457437154</v>
+      </c>
+      <c r="J99">
+        <v>-0.01671832170486567</v>
+      </c>
+      <c r="K99">
+        <v>0.04476110847548442</v>
+      </c>
+      <c r="L99">
+        <v>0.04036943179519249</v>
+      </c>
+      <c r="M99">
+        <v>0.02931730111874442</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0008984678426617125</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.006175104428804415</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.00298264192853729</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.03868410704204622</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.02959672393800222</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.0151317618432222</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>0.0141592538648999</v>
+      </c>
+      <c r="I100">
+        <v>0.005645118780024791</v>
+      </c>
+      <c r="J100">
+        <v>-0.02174382420207794</v>
+      </c>
+      <c r="K100">
+        <v>-0.04369534725076602</v>
+      </c>
+      <c r="L100">
+        <v>0.02083822678185196</v>
+      </c>
+      <c r="M100">
+        <v>0.01233517723818573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B101">
-        <v>0.05441836316278494</v>
+        <v>0.04014777708470225</v>
       </c>
       <c r="C101">
-        <v>0.01629469976639259</v>
+        <v>0.02718396338239228</v>
       </c>
       <c r="D101">
-        <v>-0.008940165563490674</v>
+        <v>-0.006337787606944155</v>
       </c>
       <c r="E101">
-        <v>-0.03009327221274911</v>
+        <v>-0.009622691684299722</v>
       </c>
       <c r="F101">
-        <v>-0.01847739737879908</v>
+        <v>0.07083317346340633</v>
       </c>
       <c r="G101">
-        <v>0.01159910121389902</v>
+        <v>-0.02147772691015733</v>
       </c>
       <c r="H101">
-        <v>0.03360639675914545</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>-0.01172522537705324</v>
+      </c>
+      <c r="I101">
+        <v>0.008038073788920229</v>
+      </c>
+      <c r="J101">
+        <v>0.001058730859566962</v>
+      </c>
+      <c r="K101">
+        <v>-0.0903044011781089</v>
+      </c>
+      <c r="L101">
+        <v>-0.01644926454474152</v>
+      </c>
+      <c r="M101">
+        <v>0.01573851763208751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +4885,25 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +4926,25 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4965,21 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
         <v>0</v>
       </c>
     </row>
